--- a/report.xlsx
+++ b/report.xlsx
@@ -19,7 +19,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -47,6 +47,12 @@
       <family val="2"/>
       <color rgb="FF069A2E"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF595959"/>
+      <sz val="9"/>
     </font>
   </fonts>
   <fills count="2">
@@ -76,7 +82,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -89,7 +95,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -100,6 +112,9 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -133,13 +148,13 @@
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFC0504D"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -148,7 +163,7 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FF00B0F0"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
@@ -156,13 +171,13 @@
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF4A7EBB"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF595959"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
@@ -175,6 +190,819 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <layout>
+        <manualLayout>
+          <layoutTarget val="inner"/>
+          <xMode val="edge"/>
+          <yMode val="edge"/>
+          <wMode val="factor"/>
+          <hMode val="factor"/>
+          <x val="0.09460622579256921"/>
+          <y val="0.146831705655235"/>
+          <w val="0.902560608234113"/>
+          <h val="0.6627299568476041"/>
+        </manualLayout>
+      </layout>
+      <lineChart>
+        <grouping val="standard"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>Sheet1!$A$2</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>No.</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill>
+              <a:srgbClr val="4a7ebb"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="4a7ebb"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <dLbls>
+            <txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>None</a:t>
+                </a:r>
+              </a:p>
+            </txPr>
+            <dLblPos val="r"/>
+            <showLegendKey val="0"/>
+            <showVal val="0"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <cat>
+            <strRef>
+              <f>Sheet1!$B$2:$K$2</f>
+              <strCache>
+                <ptCount val="10"/>
+                <pt idx="0">
+                  <v>1.</v>
+                </pt>
+                <pt idx="1">
+                  <v>2.</v>
+                </pt>
+                <pt idx="2">
+                  <v>3.</v>
+                </pt>
+                <pt idx="3">
+                  <v>4.</v>
+                </pt>
+                <pt idx="4">
+                  <v>5.</v>
+                </pt>
+                <pt idx="5">
+                  <v>None</v>
+                </pt>
+                <pt idx="6">
+                  <v>None</v>
+                </pt>
+                <pt idx="7">
+                  <v>None</v>
+                </pt>
+                <pt idx="8">
+                  <v>None</v>
+                </pt>
+                <pt idx="9">
+                  <v>None</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>Sheet1!$B$2:$K$2</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="10"/>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>Sheet1!$A$3</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Temperature(°C)</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill>
+              <a:srgbClr val="00b0f0"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="00b0f0"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <dLbls>
+            <txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>None</a:t>
+                </a:r>
+              </a:p>
+            </txPr>
+            <dLblPos val="r"/>
+            <showLegendKey val="0"/>
+            <showVal val="0"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <cat>
+            <strRef>
+              <f>Sheet1!$B$2:$K$2</f>
+              <strCache>
+                <ptCount val="10"/>
+                <pt idx="0">
+                  <v>1.</v>
+                </pt>
+                <pt idx="1">
+                  <v>2.</v>
+                </pt>
+                <pt idx="2">
+                  <v>3.</v>
+                </pt>
+                <pt idx="3">
+                  <v>4.</v>
+                </pt>
+                <pt idx="4">
+                  <v>5.</v>
+                </pt>
+                <pt idx="5">
+                  <v>None</v>
+                </pt>
+                <pt idx="6">
+                  <v>None</v>
+                </pt>
+                <pt idx="7">
+                  <v>None</v>
+                </pt>
+                <pt idx="8">
+                  <v>None</v>
+                </pt>
+                <pt idx="9">
+                  <v>None</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>Sheet1!$B$3:$H$3</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="7"/>
+                <pt idx="0">
+                  <v>20</v>
+                </pt>
+                <pt idx="1">
+                  <v>22</v>
+                </pt>
+                <pt idx="2">
+                  <v>19</v>
+                </pt>
+                <pt idx="3">
+                  <v>22</v>
+                </pt>
+                <pt idx="4">
+                  <v>21</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>Sheet1!$A$8</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Nominal</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill>
+              <a:srgbClr val="92d050"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="92d050"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <dLbls>
+            <txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>None</a:t>
+                </a:r>
+              </a:p>
+            </txPr>
+            <dLblPos val="r"/>
+            <showLegendKey val="0"/>
+            <showVal val="0"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <cat>
+            <strRef>
+              <f>Sheet1!$B$2:$K$2</f>
+              <strCache>
+                <ptCount val="10"/>
+                <pt idx="0">
+                  <v>1.</v>
+                </pt>
+                <pt idx="1">
+                  <v>2.</v>
+                </pt>
+                <pt idx="2">
+                  <v>3.</v>
+                </pt>
+                <pt idx="3">
+                  <v>4.</v>
+                </pt>
+                <pt idx="4">
+                  <v>5.</v>
+                </pt>
+                <pt idx="5">
+                  <v>None</v>
+                </pt>
+                <pt idx="6">
+                  <v>None</v>
+                </pt>
+                <pt idx="7">
+                  <v>None</v>
+                </pt>
+                <pt idx="8">
+                  <v>None</v>
+                </pt>
+                <pt idx="9">
+                  <v>None</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>Sheet1!$B$8:$K$8</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="10"/>
+                <pt idx="0">
+                  <v>20</v>
+                </pt>
+                <pt idx="1">
+                  <v>20</v>
+                </pt>
+                <pt idx="2">
+                  <v>20</v>
+                </pt>
+                <pt idx="3">
+                  <v>20</v>
+                </pt>
+                <pt idx="4">
+                  <v>20</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>Sheet1!$A$9</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Utol</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill>
+              <a:srgbClr val="c0504d"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="c0504d"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <dLbls>
+            <txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>None</a:t>
+                </a:r>
+              </a:p>
+            </txPr>
+            <dLblPos val="r"/>
+            <showLegendKey val="0"/>
+            <showVal val="0"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <cat>
+            <strRef>
+              <f>Sheet1!$B$2:$K$2</f>
+              <strCache>
+                <ptCount val="10"/>
+                <pt idx="0">
+                  <v>1.</v>
+                </pt>
+                <pt idx="1">
+                  <v>2.</v>
+                </pt>
+                <pt idx="2">
+                  <v>3.</v>
+                </pt>
+                <pt idx="3">
+                  <v>4.</v>
+                </pt>
+                <pt idx="4">
+                  <v>5.</v>
+                </pt>
+                <pt idx="5">
+                  <v>None</v>
+                </pt>
+                <pt idx="6">
+                  <v>None</v>
+                </pt>
+                <pt idx="7">
+                  <v>None</v>
+                </pt>
+                <pt idx="8">
+                  <v>None</v>
+                </pt>
+                <pt idx="9">
+                  <v>None</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>Sheet1!$B$9:$K$9</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="10"/>
+                <pt idx="0">
+                  <v>18</v>
+                </pt>
+                <pt idx="1">
+                  <v>18</v>
+                </pt>
+                <pt idx="2">
+                  <v>18</v>
+                </pt>
+                <pt idx="3">
+                  <v>18</v>
+                </pt>
+                <pt idx="4">
+                  <v>18</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>Sheet1!$A$10</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Ltol</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill>
+              <a:srgbClr val="c0504d"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="c0504d"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <dLbls>
+            <txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>None</a:t>
+                </a:r>
+              </a:p>
+            </txPr>
+            <dLblPos val="r"/>
+            <showLegendKey val="0"/>
+            <showVal val="0"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <cat>
+            <strRef>
+              <f>Sheet1!$B$2:$K$2</f>
+              <strCache>
+                <ptCount val="10"/>
+                <pt idx="0">
+                  <v>1.</v>
+                </pt>
+                <pt idx="1">
+                  <v>2.</v>
+                </pt>
+                <pt idx="2">
+                  <v>3.</v>
+                </pt>
+                <pt idx="3">
+                  <v>4.</v>
+                </pt>
+                <pt idx="4">
+                  <v>5.</v>
+                </pt>
+                <pt idx="5">
+                  <v>None</v>
+                </pt>
+                <pt idx="6">
+                  <v>None</v>
+                </pt>
+                <pt idx="7">
+                  <v>None</v>
+                </pt>
+                <pt idx="8">
+                  <v>None</v>
+                </pt>
+                <pt idx="9">
+                  <v>None</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>Sheet1!$B$10:$K$10</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="10"/>
+                <pt idx="0">
+                  <v>22</v>
+                </pt>
+                <pt idx="1">
+                  <v>22</v>
+                </pt>
+                <pt idx="2">
+                  <v>22</v>
+                </pt>
+                <pt idx="3">
+                  <v>22</v>
+                </pt>
+                <pt idx="4">
+                  <v>22</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <hiLowLines>
+          <spPr>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+        </hiLowLines>
+        <marker val="0"/>
+        <axId val="5503045"/>
+        <axId val="76952187"/>
+      </lineChart>
+      <catAx>
+        <axId val="5503045"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="d9d9d9"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>None</a:t>
+            </a:r>
+          </a:p>
+        </txPr>
+        <crossAx val="76952187"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="76952187"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <max val="24"/>
+          <min val="16"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="General" sourceLinked="0"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:ln w="9360">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>None</a:t>
+            </a:r>
+          </a:p>
+        </txPr>
+        <crossAx val="5503045"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+        <majorUnit val="1"/>
+        <minorUnit val="0.5"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+      <layout>
+        <manualLayout>
+          <xMode val="edge"/>
+          <yMode val="edge"/>
+          <wMode val="factor"/>
+          <hMode val="factor"/>
+          <x val="0.0416829475262961"/>
+          <y val="0.890439823171019"/>
+          <w val="0.9"/>
+          <h val="0.0736765056161187"/>
+        </manualLayout>
+      </layout>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+      <txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="595959"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:t>None</a:t>
+          </a:r>
+        </a:p>
+      </txPr>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor editAs="oneCell">
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>32400</rowOff>
+    </from>
+    <to>
+      <col>10</col>
+      <colOff>788760</colOff>
+      <row>31</row>
+      <rowOff>17280</rowOff>
+    </to>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </twoCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -461,170 +1289,273 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.6953125" defaultRowHeight="13.2" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="19.99" customWidth="1" style="5" min="1" max="1"/>
-    <col width="16" customWidth="1" style="5" min="2" max="2"/>
-    <col width="13.33" customWidth="1" style="5" min="3" max="3"/>
+    <col width="19.99" customWidth="1" style="7" min="1" max="1"/>
+    <col width="16" customWidth="1" style="7" min="2" max="2"/>
+    <col width="13.33" customWidth="1" style="7" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" s="6">
-      <c r="A1" s="7" t="inlineStr">
+    <row r="1" ht="12.75" customHeight="1" s="8">
+      <c r="A1" s="9" t="inlineStr">
         <is>
           <t>Final Report</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" s="6">
-      <c r="A2" s="5" t="inlineStr">
+    <row r="2" ht="12.75" customHeight="1" s="8">
+      <c r="A2" s="7" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="B2" s="8" t="inlineStr">
+      <c r="B2" s="10" t="inlineStr">
         <is>
           <t>1.</t>
         </is>
       </c>
-      <c r="C2" s="8" t="inlineStr">
+      <c r="C2" s="10" t="inlineStr">
         <is>
           <t>2.</t>
         </is>
       </c>
-      <c r="D2" s="8" t="n"/>
-      <c r="E2" s="8" t="n"/>
-      <c r="F2" s="8" t="n"/>
-      <c r="G2" s="8" t="n"/>
-      <c r="H2" s="8" t="n"/>
-      <c r="I2" s="8" t="n"/>
-      <c r="J2" s="8" t="n"/>
-      <c r="K2" s="8" t="n"/>
-      <c r="L2" s="8" t="n"/>
-      <c r="M2" s="5" t="n"/>
-      <c r="N2" s="5" t="n"/>
-      <c r="O2" s="5" t="n"/>
-      <c r="P2" s="5" t="n"/>
-      <c r="Q2" s="5" t="n"/>
-      <c r="R2" s="5" t="n"/>
-      <c r="S2" s="5" t="n"/>
-      <c r="T2" s="5" t="n"/>
-      <c r="U2" s="5" t="n"/>
+      <c r="D2" s="10" t="inlineStr">
+        <is>
+          <t>3.</t>
+        </is>
+      </c>
+      <c r="E2" s="10" t="inlineStr">
+        <is>
+          <t>4.</t>
+        </is>
+      </c>
+      <c r="F2" s="10" t="inlineStr">
+        <is>
+          <t>5.</t>
+        </is>
+      </c>
+      <c r="G2" s="10" t="inlineStr">
+        <is>
+          <t>6.</t>
+        </is>
+      </c>
+      <c r="H2" s="10" t="n"/>
+      <c r="I2" s="10" t="n"/>
+      <c r="J2" s="10" t="n"/>
+      <c r="K2" s="10" t="n"/>
+      <c r="L2" s="10" t="n"/>
     </row>
-    <row r="3" ht="12.75" customHeight="1" s="6">
-      <c r="A3" s="5" t="inlineStr">
+    <row r="3" ht="12.75" customHeight="1" s="8">
+      <c r="A3" s="7" t="inlineStr">
         <is>
           <t>Temperature(°C)</t>
         </is>
       </c>
-      <c r="B3" s="8" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="D3" s="8" t="n"/>
-      <c r="E3" s="8" t="n"/>
-      <c r="F3" s="8" t="n"/>
-      <c r="G3" s="8" t="n"/>
-      <c r="H3" s="8" t="n"/>
-      <c r="I3" s="8" t="n"/>
-      <c r="J3" s="8" t="n"/>
-      <c r="K3" s="8" t="n"/>
-      <c r="L3" s="8" t="n"/>
-      <c r="M3" s="8" t="n"/>
-      <c r="N3" s="8" t="n"/>
-      <c r="O3" s="8" t="n"/>
-      <c r="P3" s="8" t="n"/>
-      <c r="Q3" s="5" t="n"/>
-      <c r="R3" s="5" t="n"/>
-      <c r="S3" s="5" t="n"/>
-      <c r="T3" s="5" t="n"/>
-      <c r="U3" s="5" t="n"/>
+      <c r="B3" s="10" t="n">
+        <v>21</v>
+      </c>
+      <c r="C3" s="10" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="E3" s="10" t="n">
+        <v>19</v>
+      </c>
+      <c r="F3" s="11" t="n">
+        <v>21</v>
+      </c>
+      <c r="G3" s="11" t="n">
+        <v>21</v>
+      </c>
+      <c r="H3" s="11" t="n"/>
+      <c r="I3" s="11" t="n"/>
+      <c r="J3" s="11" t="n"/>
+      <c r="K3" s="11" t="n"/>
+      <c r="L3" s="10" t="n"/>
+      <c r="M3" s="10" t="n"/>
+      <c r="N3" s="10" t="n"/>
+      <c r="O3" s="10" t="n"/>
+      <c r="P3" s="10" t="n"/>
     </row>
-    <row r="4" ht="12.75" customHeight="1" s="6">
-      <c r="A4" s="5" t="inlineStr">
+    <row r="4" ht="12.75" customHeight="1" s="8">
+      <c r="A4" s="7" t="inlineStr">
         <is>
           <t>Hour</t>
         </is>
       </c>
-      <c r="B4" s="8" t="inlineStr">
-        <is>
-          <t>11:59:36</t>
-        </is>
-      </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>12:11:37</t>
-        </is>
-      </c>
-      <c r="D4" s="8" t="n"/>
-      <c r="E4" s="8" t="n"/>
-      <c r="F4" s="8" t="n"/>
-      <c r="G4" s="8" t="n"/>
-      <c r="H4" s="8" t="n"/>
-      <c r="I4" s="5" t="n"/>
-      <c r="J4" s="5" t="n"/>
-      <c r="K4" s="5" t="n"/>
-      <c r="L4" s="5" t="n"/>
-      <c r="M4" s="5" t="n"/>
-      <c r="N4" s="5" t="n"/>
-      <c r="O4" s="5" t="n"/>
-      <c r="P4" s="5" t="n"/>
-      <c r="Q4" s="5" t="n"/>
-      <c r="R4" s="5" t="n"/>
-      <c r="S4" s="5" t="n"/>
-      <c r="T4" s="5" t="n"/>
-      <c r="U4" s="5" t="n"/>
+      <c r="B4" s="10" t="inlineStr">
+        <is>
+          <t>23:36:59</t>
+        </is>
+      </c>
+      <c r="C4" s="10" t="inlineStr">
+        <is>
+          <t>23:37:05</t>
+        </is>
+      </c>
+      <c r="D4" s="10" t="inlineStr">
+        <is>
+          <t>23:37:10</t>
+        </is>
+      </c>
+      <c r="E4" s="10" t="inlineStr">
+        <is>
+          <t>23:37:16</t>
+        </is>
+      </c>
+      <c r="F4" s="10" t="inlineStr">
+        <is>
+          <t>23:37:21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>23:38:59</t>
+        </is>
+      </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1" s="6">
-      <c r="A5" s="5" t="inlineStr">
+    <row r="5" ht="12.75" customHeight="1" s="8">
+      <c r="A5" s="7" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B5" s="9" t="inlineStr">
+      <c r="B5" s="12" t="inlineStr">
         <is>
           <t>03-10-22</t>
         </is>
       </c>
-      <c r="C5" s="9" t="inlineStr">
+      <c r="C5" s="12" t="inlineStr">
         <is>
           <t>03-10-22</t>
         </is>
       </c>
-      <c r="D5" s="9" t="n"/>
-      <c r="E5" s="9" t="n"/>
-      <c r="F5" s="9" t="n"/>
-      <c r="G5" s="9" t="n"/>
-      <c r="H5" s="9" t="n"/>
-      <c r="I5" s="5" t="n"/>
-      <c r="J5" s="5" t="n"/>
-      <c r="K5" s="5" t="n"/>
-      <c r="L5" s="5" t="n"/>
-      <c r="M5" s="5" t="n"/>
-      <c r="N5" s="5" t="n"/>
-      <c r="O5" s="5" t="n"/>
-      <c r="P5" s="5" t="n"/>
-      <c r="Q5" s="5" t="n"/>
-      <c r="R5" s="5" t="n"/>
-      <c r="S5" s="5" t="n"/>
-      <c r="T5" s="5" t="n"/>
-      <c r="U5" s="5" t="n"/>
+      <c r="D5" s="12" t="inlineStr">
+        <is>
+          <t>03-10-22</t>
+        </is>
+      </c>
+      <c r="E5" s="12" t="inlineStr">
+        <is>
+          <t>03-10-22</t>
+        </is>
+      </c>
+      <c r="F5" s="12" t="inlineStr">
+        <is>
+          <t>03-10-22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>03-10-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="12.8" customHeight="1" s="8">
+      <c r="A8" s="7" t="n"/>
+      <c r="B8" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="E8" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="F8" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="G8" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H8" s="10" t="n"/>
+      <c r="I8" s="10" t="n"/>
+      <c r="J8" s="10" t="n"/>
+      <c r="K8" s="10" t="n"/>
+      <c r="L8" s="10" t="n"/>
+      <c r="M8" s="10" t="n"/>
+      <c r="N8" s="10" t="n"/>
+      <c r="O8" s="10" t="n"/>
+      <c r="P8" s="10" t="n"/>
+      <c r="Q8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.8" customHeight="1" s="8">
+      <c r="A9" s="7" t="n"/>
+      <c r="B9" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="C9" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="D9" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="E9" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="F9" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="G9" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="H9" s="10" t="n"/>
+      <c r="I9" s="10" t="n"/>
+      <c r="J9" s="10" t="n"/>
+      <c r="K9" s="10" t="n"/>
+      <c r="L9" s="10" t="n"/>
+      <c r="M9" s="10" t="n"/>
+      <c r="N9" s="10" t="n"/>
+      <c r="O9" s="10" t="n"/>
+      <c r="P9" s="10" t="n"/>
+      <c r="Q9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.8" customHeight="1" s="8">
+      <c r="A10" s="7" t="n"/>
+      <c r="B10" s="10" t="n">
+        <v>22</v>
+      </c>
+      <c r="C10" s="10" t="n">
+        <v>22</v>
+      </c>
+      <c r="D10" s="10" t="n">
+        <v>22</v>
+      </c>
+      <c r="E10" s="10" t="n">
+        <v>22</v>
+      </c>
+      <c r="F10" s="10" t="n">
+        <v>22</v>
+      </c>
+      <c r="G10" s="10" t="n">
+        <v>22</v>
+      </c>
+      <c r="H10" s="10" t="n"/>
+      <c r="I10" s="10" t="n"/>
+      <c r="J10" s="10" t="n"/>
+      <c r="K10" s="10" t="n"/>
+      <c r="L10" s="10" t="n"/>
+      <c r="M10" s="10" t="n"/>
+      <c r="N10" s="10" t="n"/>
+      <c r="O10" s="10" t="n"/>
+      <c r="P10" s="10" t="n"/>
+      <c r="Q10" s="10" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -641,5 +1572,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/report.xlsx
+++ b/report.xlsx
@@ -82,7 +82,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -99,9 +99,6 @@
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -203,10 +200,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.09460622579256921"/>
-          <y val="0.146831705655235"/>
-          <w val="0.902560608234113"/>
-          <h val="0.6627299568476041"/>
+          <x val="0.0945757499910609"/>
+          <y val="0.146898432174506"/>
+          <w val="0.902456466549862"/>
+          <h val="0.662576687116564"/>
         </manualLayout>
       </layout>
       <lineChart>
@@ -284,13 +281,13 @@
                   <v>2.</v>
                 </pt>
                 <pt idx="2">
-                  <v>3.</v>
+                  <v>None</v>
                 </pt>
                 <pt idx="3">
-                  <v>4.</v>
+                  <v>None</v>
                 </pt>
                 <pt idx="4">
-                  <v>5.</v>
+                  <v>None</v>
                 </pt>
                 <pt idx="5">
                   <v>None</v>
@@ -393,13 +390,13 @@
                   <v>2.</v>
                 </pt>
                 <pt idx="2">
-                  <v>3.</v>
+                  <v>None</v>
                 </pt>
                 <pt idx="3">
-                  <v>4.</v>
+                  <v>None</v>
                 </pt>
                 <pt idx="4">
-                  <v>5.</v>
+                  <v>None</v>
                 </pt>
                 <pt idx="5">
                   <v>None</v>
@@ -429,16 +426,7 @@
                   <v>20</v>
                 </pt>
                 <pt idx="1">
-                  <v>22</v>
-                </pt>
-                <pt idx="2">
-                  <v>19</v>
-                </pt>
-                <pt idx="3">
-                  <v>22</v>
-                </pt>
-                <pt idx="4">
-                  <v>21</v>
+                  <v>18</v>
                 </pt>
               </numCache>
             </numRef>
@@ -517,13 +505,13 @@
                   <v>2.</v>
                 </pt>
                 <pt idx="2">
-                  <v>3.</v>
+                  <v>None</v>
                 </pt>
                 <pt idx="3">
-                  <v>4.</v>
+                  <v>None</v>
                 </pt>
                 <pt idx="4">
-                  <v>5.</v>
+                  <v>None</v>
                 </pt>
                 <pt idx="5">
                   <v>None</v>
@@ -553,15 +541,6 @@
                   <v>20</v>
                 </pt>
                 <pt idx="1">
-                  <v>20</v>
-                </pt>
-                <pt idx="2">
-                  <v>20</v>
-                </pt>
-                <pt idx="3">
-                  <v>20</v>
-                </pt>
-                <pt idx="4">
                   <v>20</v>
                 </pt>
               </numCache>
@@ -578,7 +557,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>Utol</v>
+                  <v>Lower limit</v>
                 </pt>
               </strCache>
             </strRef>
@@ -641,13 +620,13 @@
                   <v>2.</v>
                 </pt>
                 <pt idx="2">
-                  <v>3.</v>
+                  <v>None</v>
                 </pt>
                 <pt idx="3">
-                  <v>4.</v>
+                  <v>None</v>
                 </pt>
                 <pt idx="4">
-                  <v>5.</v>
+                  <v>None</v>
                 </pt>
                 <pt idx="5">
                   <v>None</v>
@@ -677,15 +656,6 @@
                   <v>18</v>
                 </pt>
                 <pt idx="1">
-                  <v>18</v>
-                </pt>
-                <pt idx="2">
-                  <v>18</v>
-                </pt>
-                <pt idx="3">
-                  <v>18</v>
-                </pt>
-                <pt idx="4">
                   <v>18</v>
                 </pt>
               </numCache>
@@ -702,7 +672,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>Ltol</v>
+                  <v>Upper limit</v>
                 </pt>
               </strCache>
             </strRef>
@@ -765,13 +735,13 @@
                   <v>2.</v>
                 </pt>
                 <pt idx="2">
-                  <v>3.</v>
+                  <v>None</v>
                 </pt>
                 <pt idx="3">
-                  <v>4.</v>
+                  <v>None</v>
                 </pt>
                 <pt idx="4">
-                  <v>5.</v>
+                  <v>None</v>
                 </pt>
                 <pt idx="5">
                   <v>None</v>
@@ -801,15 +771,6 @@
                   <v>22</v>
                 </pt>
                 <pt idx="1">
-                  <v>22</v>
-                </pt>
-                <pt idx="2">
-                  <v>22</v>
-                </pt>
-                <pt idx="3">
-                  <v>22</v>
-                </pt>
-                <pt idx="4">
                   <v>22</v>
                 </pt>
               </numCache>
@@ -826,11 +787,11 @@
           </spPr>
         </hiLowLines>
         <marker val="0"/>
-        <axId val="5503045"/>
-        <axId val="76952187"/>
+        <axId val="27542037"/>
+        <axId val="44869902"/>
       </lineChart>
       <catAx>
-        <axId val="5503045"/>
+        <axId val="27542037"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -866,7 +827,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="76952187"/>
+        <crossAx val="44869902"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -874,7 +835,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="76952187"/>
+        <axId val="44869902"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="24"/>
@@ -920,7 +881,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="5503045"/>
+        <crossAx val="27542037"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
         <majorUnit val="1"/>
@@ -984,9 +945,9 @@
     </from>
     <to>
       <col>10</col>
-      <colOff>788760</colOff>
+      <colOff>787320</colOff>
       <row>31</row>
-      <rowOff>17280</rowOff>
+      <rowOff>15840</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -1297,265 +1258,277 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8:Q10"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.6953125" defaultRowHeight="13.2" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7578125" defaultRowHeight="13.2" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="19.99" customWidth="1" style="7" min="1" max="1"/>
-    <col width="16" customWidth="1" style="7" min="2" max="2"/>
-    <col width="13.33" customWidth="1" style="7" min="3" max="3"/>
+    <col width="19.99" customWidth="1" style="6" min="1" max="1"/>
+    <col width="16" customWidth="1" style="6" min="2" max="2"/>
+    <col width="13.33" customWidth="1" style="6" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" s="8">
-      <c r="A1" s="9" t="inlineStr">
+    <row r="1" ht="12.75" customHeight="1" s="7">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>Final Report</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" s="8">
-      <c r="A2" s="7" t="inlineStr">
+    <row r="2" ht="12.75" customHeight="1" s="7">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="B2" s="10" t="inlineStr">
+      <c r="B2" s="9" t="inlineStr">
         <is>
           <t>1.</t>
         </is>
       </c>
-      <c r="C2" s="10" t="inlineStr">
+      <c r="C2" s="9" t="inlineStr">
         <is>
           <t>2.</t>
         </is>
       </c>
-      <c r="D2" s="10" t="inlineStr">
+      <c r="D2" s="9" t="inlineStr">
         <is>
           <t>3.</t>
         </is>
       </c>
-      <c r="E2" s="10" t="inlineStr">
+      <c r="E2" s="9" t="inlineStr">
         <is>
           <t>4.</t>
         </is>
       </c>
-      <c r="F2" s="10" t="inlineStr">
+      <c r="F2" s="9" t="inlineStr">
         <is>
           <t>5.</t>
         </is>
       </c>
-      <c r="G2" s="10" t="inlineStr">
+      <c r="G2" s="9" t="inlineStr">
         <is>
           <t>6.</t>
         </is>
       </c>
-      <c r="H2" s="10" t="n"/>
-      <c r="I2" s="10" t="n"/>
-      <c r="J2" s="10" t="n"/>
-      <c r="K2" s="10" t="n"/>
-      <c r="L2" s="10" t="n"/>
+      <c r="H2" s="9" t="n"/>
+      <c r="I2" s="9" t="n"/>
+      <c r="J2" s="9" t="n"/>
+      <c r="K2" s="9" t="n"/>
+      <c r="L2" s="9" t="n"/>
     </row>
-    <row r="3" ht="12.75" customHeight="1" s="8">
-      <c r="A3" s="7" t="inlineStr">
+    <row r="3" ht="12.75" customHeight="1" s="7">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>Temperature(°C)</t>
         </is>
       </c>
-      <c r="B3" s="10" t="n">
+      <c r="B3" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="C3" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="F3" s="10" t="n">
         <v>21</v>
       </c>
-      <c r="C3" s="10" t="n">
+      <c r="G3" s="10" t="n">
+        <v>21</v>
+      </c>
+      <c r="H3" s="10" t="n"/>
+      <c r="I3" s="10" t="n"/>
+      <c r="J3" s="10" t="n"/>
+      <c r="K3" s="10" t="n"/>
+      <c r="L3" s="9" t="n"/>
+      <c r="M3" s="9" t="n"/>
+      <c r="N3" s="9" t="n"/>
+      <c r="O3" s="9" t="n"/>
+      <c r="P3" s="9" t="n"/>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="7">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="B4" s="9" t="inlineStr">
+        <is>
+          <t>12:10:10</t>
+        </is>
+      </c>
+      <c r="C4" s="9" t="inlineStr">
+        <is>
+          <t>12:10:16</t>
+        </is>
+      </c>
+      <c r="D4" s="9" t="inlineStr">
+        <is>
+          <t>12:10:22</t>
+        </is>
+      </c>
+      <c r="E4" s="9" t="inlineStr">
+        <is>
+          <t>12:10:28</t>
+        </is>
+      </c>
+      <c r="F4" s="9" t="inlineStr">
+        <is>
+          <t>12:10:33</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>12:10:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="12.75" customHeight="1" s="7">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>04-10-22</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>04-10-22</t>
+        </is>
+      </c>
+      <c r="D5" s="11" t="inlineStr">
+        <is>
+          <t>04-10-22</t>
+        </is>
+      </c>
+      <c r="E5" s="11" t="inlineStr">
+        <is>
+          <t>04-10-22</t>
+        </is>
+      </c>
+      <c r="F5" s="11" t="inlineStr">
+        <is>
+          <t>04-10-22</t>
+        </is>
+      </c>
+      <c r="G5" s="6" t="inlineStr">
+        <is>
+          <t>04-10-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="12.8" customHeight="1" s="7">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+      <c r="B8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="E8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="F8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="G8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="H8" s="9" t="n"/>
+      <c r="I8" s="9" t="n"/>
+      <c r="J8" s="9" t="n"/>
+      <c r="K8" s="9" t="n"/>
+      <c r="L8" s="9" t="n"/>
+      <c r="M8" s="9" t="n"/>
+      <c r="N8" s="9" t="n"/>
+      <c r="O8" s="9" t="n"/>
+      <c r="P8" s="9" t="n"/>
+      <c r="Q8" s="9" t="n"/>
+    </row>
+    <row r="9" ht="12.8" customHeight="1" s="7">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>Lower limit</t>
+        </is>
+      </c>
+      <c r="B9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="C9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="D9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="E9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="G9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="H9" s="9" t="n"/>
+      <c r="I9" s="9" t="n"/>
+      <c r="J9" s="9" t="n"/>
+      <c r="K9" s="9" t="n"/>
+      <c r="L9" s="9" t="n"/>
+      <c r="M9" s="9" t="n"/>
+      <c r="N9" s="9" t="n"/>
+      <c r="O9" s="9" t="n"/>
+      <c r="P9" s="9" t="n"/>
+      <c r="Q9" s="9" t="n"/>
+    </row>
+    <row r="10" ht="12.8" customHeight="1" s="7">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>Upper limit</t>
+        </is>
+      </c>
+      <c r="B10" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="D3" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="E3" s="10" t="n">
-        <v>19</v>
-      </c>
-      <c r="F3" s="11" t="n">
-        <v>21</v>
-      </c>
-      <c r="G3" s="11" t="n">
-        <v>21</v>
-      </c>
-      <c r="H3" s="11" t="n"/>
-      <c r="I3" s="11" t="n"/>
-      <c r="J3" s="11" t="n"/>
-      <c r="K3" s="11" t="n"/>
-      <c r="L3" s="10" t="n"/>
-      <c r="M3" s="10" t="n"/>
-      <c r="N3" s="10" t="n"/>
-      <c r="O3" s="10" t="n"/>
-      <c r="P3" s="10" t="n"/>
-    </row>
-    <row r="4" ht="12.75" customHeight="1" s="8">
-      <c r="A4" s="7" t="inlineStr">
-        <is>
-          <t>Hour</t>
-        </is>
-      </c>
-      <c r="B4" s="10" t="inlineStr">
-        <is>
-          <t>23:36:59</t>
-        </is>
-      </c>
-      <c r="C4" s="10" t="inlineStr">
-        <is>
-          <t>23:37:05</t>
-        </is>
-      </c>
-      <c r="D4" s="10" t="inlineStr">
-        <is>
-          <t>23:37:10</t>
-        </is>
-      </c>
-      <c r="E4" s="10" t="inlineStr">
-        <is>
-          <t>23:37:16</t>
-        </is>
-      </c>
-      <c r="F4" s="10" t="inlineStr">
-        <is>
-          <t>23:37:21</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>23:38:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="12.75" customHeight="1" s="8">
-      <c r="A5" s="7" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B5" s="12" t="inlineStr">
-        <is>
-          <t>03-10-22</t>
-        </is>
-      </c>
-      <c r="C5" s="12" t="inlineStr">
-        <is>
-          <t>03-10-22</t>
-        </is>
-      </c>
-      <c r="D5" s="12" t="inlineStr">
-        <is>
-          <t>03-10-22</t>
-        </is>
-      </c>
-      <c r="E5" s="12" t="inlineStr">
-        <is>
-          <t>03-10-22</t>
-        </is>
-      </c>
-      <c r="F5" s="12" t="inlineStr">
-        <is>
-          <t>03-10-22</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>03-10-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="12.8" customHeight="1" s="8">
-      <c r="A8" s="7" t="n"/>
-      <c r="B8" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="C8" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="D8" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="E8" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="F8" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="G8" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="H8" s="10" t="n"/>
-      <c r="I8" s="10" t="n"/>
-      <c r="J8" s="10" t="n"/>
-      <c r="K8" s="10" t="n"/>
-      <c r="L8" s="10" t="n"/>
-      <c r="M8" s="10" t="n"/>
-      <c r="N8" s="10" t="n"/>
-      <c r="O8" s="10" t="n"/>
-      <c r="P8" s="10" t="n"/>
-      <c r="Q8" s="10" t="n"/>
-    </row>
-    <row r="9" ht="12.8" customHeight="1" s="8">
-      <c r="A9" s="7" t="n"/>
-      <c r="B9" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="C9" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="D9" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="E9" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="F9" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="G9" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="H9" s="10" t="n"/>
-      <c r="I9" s="10" t="n"/>
-      <c r="J9" s="10" t="n"/>
-      <c r="K9" s="10" t="n"/>
-      <c r="L9" s="10" t="n"/>
-      <c r="M9" s="10" t="n"/>
-      <c r="N9" s="10" t="n"/>
-      <c r="O9" s="10" t="n"/>
-      <c r="P9" s="10" t="n"/>
-      <c r="Q9" s="10" t="n"/>
-    </row>
-    <row r="10" ht="12.8" customHeight="1" s="8">
-      <c r="A10" s="7" t="n"/>
-      <c r="B10" s="10" t="n">
+      <c r="C10" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="C10" s="10" t="n">
+      <c r="D10" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="D10" s="10" t="n">
+      <c r="E10" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="E10" s="10" t="n">
+      <c r="F10" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="F10" s="10" t="n">
+      <c r="G10" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="G10" s="10" t="n">
-        <v>22</v>
-      </c>
-      <c r="H10" s="10" t="n"/>
-      <c r="I10" s="10" t="n"/>
-      <c r="J10" s="10" t="n"/>
-      <c r="K10" s="10" t="n"/>
-      <c r="L10" s="10" t="n"/>
-      <c r="M10" s="10" t="n"/>
-      <c r="N10" s="10" t="n"/>
-      <c r="O10" s="10" t="n"/>
-      <c r="P10" s="10" t="n"/>
-      <c r="Q10" s="10" t="n"/>
+      <c r="H10" s="9" t="n"/>
+      <c r="I10" s="9" t="n"/>
+      <c r="J10" s="9" t="n"/>
+      <c r="K10" s="9" t="n"/>
+      <c r="L10" s="9" t="n"/>
+      <c r="M10" s="9" t="n"/>
+      <c r="N10" s="9" t="n"/>
+      <c r="O10" s="9" t="n"/>
+      <c r="P10" s="9" t="n"/>
+      <c r="Q10" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/report.xlsx
+++ b/report.xlsx
@@ -45,8 +45,9 @@
       <name val="Arial"/>
       <charset val="1"/>
       <family val="2"/>
+      <b val="1"/>
       <color rgb="FF069A2E"/>
-      <sz val="10"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -200,10 +201,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0945757499910609"/>
-          <y val="0.146898432174506"/>
-          <w val="0.902456466549862"/>
-          <h val="0.662576687116564"/>
+          <x val="0.0695985401459854"/>
+          <y val="0.168732460243218"/>
+          <w val="0.902226277372263"/>
+          <h val="0.662067352666043"/>
         </manualLayout>
       </layout>
       <lineChart>
@@ -227,7 +228,7 @@
             <a:solidFill>
               <a:srgbClr val="4a7ebb"/>
             </a:solidFill>
-            <a:ln w="28440">
+            <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="4a7ebb"/>
               </a:solidFill>
@@ -271,9 +272,9 @@
           </dLbls>
           <cat>
             <strRef>
-              <f>Sheet1!$B$2:$K$2</f>
+              <f>Sheet1!$B$2:$U$2</f>
               <strCache>
-                <ptCount val="10"/>
+                <ptCount val="20"/>
                 <pt idx="0">
                   <v>1.</v>
                 </pt>
@@ -302,6 +303,36 @@
                   <v>None</v>
                 </pt>
                 <pt idx="9">
+                  <v>None</v>
+                </pt>
+                <pt idx="10">
+                  <v>None</v>
+                </pt>
+                <pt idx="11">
+                  <v>None</v>
+                </pt>
+                <pt idx="12">
+                  <v>None</v>
+                </pt>
+                <pt idx="13">
+                  <v>None</v>
+                </pt>
+                <pt idx="14">
+                  <v>None</v>
+                </pt>
+                <pt idx="15">
+                  <v>None</v>
+                </pt>
+                <pt idx="16">
+                  <v>None</v>
+                </pt>
+                <pt idx="17">
+                  <v>None</v>
+                </pt>
+                <pt idx="18">
+                  <v>None</v>
+                </pt>
+                <pt idx="19">
                   <v>None</v>
                 </pt>
               </strCache>
@@ -336,7 +367,7 @@
             <a:solidFill>
               <a:srgbClr val="00b0f0"/>
             </a:solidFill>
-            <a:ln w="28440">
+            <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="00b0f0"/>
               </a:solidFill>
@@ -380,9 +411,9 @@
           </dLbls>
           <cat>
             <strRef>
-              <f>Sheet1!$B$2:$K$2</f>
+              <f>Sheet1!$B$2:$U$2</f>
               <strCache>
-                <ptCount val="10"/>
+                <ptCount val="20"/>
                 <pt idx="0">
                   <v>1.</v>
                 </pt>
@@ -411,6 +442,36 @@
                   <v>None</v>
                 </pt>
                 <pt idx="9">
+                  <v>None</v>
+                </pt>
+                <pt idx="10">
+                  <v>None</v>
+                </pt>
+                <pt idx="11">
+                  <v>None</v>
+                </pt>
+                <pt idx="12">
+                  <v>None</v>
+                </pt>
+                <pt idx="13">
+                  <v>None</v>
+                </pt>
+                <pt idx="14">
+                  <v>None</v>
+                </pt>
+                <pt idx="15">
+                  <v>None</v>
+                </pt>
+                <pt idx="16">
+                  <v>None</v>
+                </pt>
+                <pt idx="17">
+                  <v>None</v>
+                </pt>
+                <pt idx="18">
+                  <v>None</v>
+                </pt>
+                <pt idx="19">
                   <v>None</v>
                 </pt>
               </strCache>
@@ -418,15 +479,15 @@
           </cat>
           <val>
             <numRef>
-              <f>Sheet1!$B$3:$H$3</f>
+              <f>Sheet1!$B$3:$U$3</f>
               <numCache>
                 <formatCode>General</formatCode>
-                <ptCount val="7"/>
+                <ptCount val="20"/>
                 <pt idx="0">
+                  <v>19</v>
+                </pt>
+                <pt idx="1">
                   <v>20</v>
-                </pt>
-                <pt idx="1">
-                  <v>18</v>
                 </pt>
               </numCache>
             </numRef>
@@ -451,7 +512,7 @@
             <a:solidFill>
               <a:srgbClr val="92d050"/>
             </a:solidFill>
-            <a:ln w="28440">
+            <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="92d050"/>
               </a:solidFill>
@@ -495,9 +556,9 @@
           </dLbls>
           <cat>
             <strRef>
-              <f>Sheet1!$B$2:$K$2</f>
+              <f>Sheet1!$B$2:$U$2</f>
               <strCache>
-                <ptCount val="10"/>
+                <ptCount val="20"/>
                 <pt idx="0">
                   <v>1.</v>
                 </pt>
@@ -526,6 +587,36 @@
                   <v>None</v>
                 </pt>
                 <pt idx="9">
+                  <v>None</v>
+                </pt>
+                <pt idx="10">
+                  <v>None</v>
+                </pt>
+                <pt idx="11">
+                  <v>None</v>
+                </pt>
+                <pt idx="12">
+                  <v>None</v>
+                </pt>
+                <pt idx="13">
+                  <v>None</v>
+                </pt>
+                <pt idx="14">
+                  <v>None</v>
+                </pt>
+                <pt idx="15">
+                  <v>None</v>
+                </pt>
+                <pt idx="16">
+                  <v>None</v>
+                </pt>
+                <pt idx="17">
+                  <v>None</v>
+                </pt>
+                <pt idx="18">
+                  <v>None</v>
+                </pt>
+                <pt idx="19">
                   <v>None</v>
                 </pt>
               </strCache>
@@ -533,10 +624,10 @@
           </cat>
           <val>
             <numRef>
-              <f>Sheet1!$B$8:$K$8</f>
+              <f>Sheet1!$B$8:$U$8</f>
               <numCache>
                 <formatCode>General</formatCode>
-                <ptCount val="10"/>
+                <ptCount val="20"/>
                 <pt idx="0">
                   <v>20</v>
                 </pt>
@@ -566,7 +657,7 @@
             <a:solidFill>
               <a:srgbClr val="c0504d"/>
             </a:solidFill>
-            <a:ln w="28440">
+            <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="c0504d"/>
               </a:solidFill>
@@ -610,9 +701,9 @@
           </dLbls>
           <cat>
             <strRef>
-              <f>Sheet1!$B$2:$K$2</f>
+              <f>Sheet1!$B$2:$U$2</f>
               <strCache>
-                <ptCount val="10"/>
+                <ptCount val="20"/>
                 <pt idx="0">
                   <v>1.</v>
                 </pt>
@@ -641,6 +732,36 @@
                   <v>None</v>
                 </pt>
                 <pt idx="9">
+                  <v>None</v>
+                </pt>
+                <pt idx="10">
+                  <v>None</v>
+                </pt>
+                <pt idx="11">
+                  <v>None</v>
+                </pt>
+                <pt idx="12">
+                  <v>None</v>
+                </pt>
+                <pt idx="13">
+                  <v>None</v>
+                </pt>
+                <pt idx="14">
+                  <v>None</v>
+                </pt>
+                <pt idx="15">
+                  <v>None</v>
+                </pt>
+                <pt idx="16">
+                  <v>None</v>
+                </pt>
+                <pt idx="17">
+                  <v>None</v>
+                </pt>
+                <pt idx="18">
+                  <v>None</v>
+                </pt>
+                <pt idx="19">
                   <v>None</v>
                 </pt>
               </strCache>
@@ -648,10 +769,10 @@
           </cat>
           <val>
             <numRef>
-              <f>Sheet1!$B$9:$K$9</f>
+              <f>Sheet1!$B$9:$U$9</f>
               <numCache>
                 <formatCode>General</formatCode>
-                <ptCount val="10"/>
+                <ptCount val="20"/>
                 <pt idx="0">
                   <v>18</v>
                 </pt>
@@ -681,7 +802,7 @@
             <a:solidFill>
               <a:srgbClr val="c0504d"/>
             </a:solidFill>
-            <a:ln w="28440">
+            <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="c0504d"/>
               </a:solidFill>
@@ -725,9 +846,9 @@
           </dLbls>
           <cat>
             <strRef>
-              <f>Sheet1!$B$2:$K$2</f>
+              <f>Sheet1!$B$2:$U$2</f>
               <strCache>
-                <ptCount val="10"/>
+                <ptCount val="20"/>
                 <pt idx="0">
                   <v>1.</v>
                 </pt>
@@ -756,6 +877,36 @@
                   <v>None</v>
                 </pt>
                 <pt idx="9">
+                  <v>None</v>
+                </pt>
+                <pt idx="10">
+                  <v>None</v>
+                </pt>
+                <pt idx="11">
+                  <v>None</v>
+                </pt>
+                <pt idx="12">
+                  <v>None</v>
+                </pt>
+                <pt idx="13">
+                  <v>None</v>
+                </pt>
+                <pt idx="14">
+                  <v>None</v>
+                </pt>
+                <pt idx="15">
+                  <v>None</v>
+                </pt>
+                <pt idx="16">
+                  <v>None</v>
+                </pt>
+                <pt idx="17">
+                  <v>None</v>
+                </pt>
+                <pt idx="18">
+                  <v>None</v>
+                </pt>
+                <pt idx="19">
                   <v>None</v>
                 </pt>
               </strCache>
@@ -763,10 +914,10 @@
           </cat>
           <val>
             <numRef>
-              <f>Sheet1!$B$10:$K$10</f>
+              <f>Sheet1!$B$10:U$10</f>
               <numCache>
                 <formatCode>General</formatCode>
-                <ptCount val="10"/>
+                <ptCount val="20"/>
                 <pt idx="0">
                   <v>22</v>
                 </pt>
@@ -787,11 +938,11 @@
           </spPr>
         </hiLowLines>
         <marker val="0"/>
-        <axId val="27542037"/>
-        <axId val="44869902"/>
+        <axId val="63710516"/>
+        <axId val="97829862"/>
       </lineChart>
       <catAx>
-        <axId val="27542037"/>
+        <axId val="63710516"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -827,7 +978,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="44869902"/>
+        <crossAx val="97829862"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -835,7 +986,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="44869902"/>
+        <axId val="97829862"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="24"/>
@@ -881,9 +1032,9 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="27542037"/>
+        <crossAx val="63710516"/>
         <crosses val="autoZero"/>
-        <crossBetween val="between"/>
+        <crossBetween val="midCat"/>
         <majorUnit val="1"/>
         <minorUnit val="0.5"/>
       </valAx>
@@ -939,15 +1090,15 @@
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>0</col>
-      <colOff>0</colOff>
+      <colOff>237960</colOff>
       <row>12</row>
-      <rowOff>32400</rowOff>
+      <rowOff>72360</rowOff>
     </from>
     <to>
       <col>10</col>
-      <colOff>787320</colOff>
-      <row>31</row>
-      <rowOff>15840</rowOff>
+      <colOff>745560</colOff>
+      <row>30</row>
+      <rowOff>133200</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -1258,10 +1409,10 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="M19" activeCellId="0" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7578125" defaultRowHeight="13.2" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9140625" defaultRowHeight="13.2" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="19.99" customWidth="1" style="6" min="1" max="1"/>
     <col width="16" customWidth="1" style="6" min="2" max="2"/>
@@ -1276,7 +1427,7 @@
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1" s="7">
-      <c r="A2" s="6" t="inlineStr">
+      <c r="A2" s="9" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
@@ -1311,14 +1462,79 @@
           <t>6.</t>
         </is>
       </c>
-      <c r="H2" s="9" t="n"/>
-      <c r="I2" s="9" t="n"/>
-      <c r="J2" s="9" t="n"/>
-      <c r="K2" s="9" t="n"/>
-      <c r="L2" s="9" t="n"/>
+      <c r="H2" s="9" t="inlineStr">
+        <is>
+          <t>7.</t>
+        </is>
+      </c>
+      <c r="I2" s="9" t="inlineStr">
+        <is>
+          <t>8.</t>
+        </is>
+      </c>
+      <c r="J2" s="9" t="inlineStr">
+        <is>
+          <t>9.</t>
+        </is>
+      </c>
+      <c r="K2" s="9" t="inlineStr">
+        <is>
+          <t>10.</t>
+        </is>
+      </c>
+      <c r="L2" s="9" t="inlineStr">
+        <is>
+          <t>11.</t>
+        </is>
+      </c>
+      <c r="M2" s="9" t="inlineStr">
+        <is>
+          <t>12.</t>
+        </is>
+      </c>
+      <c r="N2" s="9" t="inlineStr">
+        <is>
+          <t>13.</t>
+        </is>
+      </c>
+      <c r="O2" s="9" t="inlineStr">
+        <is>
+          <t>14.</t>
+        </is>
+      </c>
+      <c r="P2" s="9" t="inlineStr">
+        <is>
+          <t>15.</t>
+        </is>
+      </c>
+      <c r="Q2" s="9" t="inlineStr">
+        <is>
+          <t>16.</t>
+        </is>
+      </c>
+      <c r="R2" s="9" t="inlineStr">
+        <is>
+          <t>17.</t>
+        </is>
+      </c>
+      <c r="S2" s="9" t="inlineStr">
+        <is>
+          <t>18.</t>
+        </is>
+      </c>
+      <c r="T2" s="9" t="inlineStr">
+        <is>
+          <t>19.</t>
+        </is>
+      </c>
+      <c r="U2" s="9" t="inlineStr">
+        <is>
+          <t>20.</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="7">
-      <c r="A3" s="6" t="inlineStr">
+      <c r="A3" s="9" t="inlineStr">
         <is>
           <t>Temperature(°C)</t>
         </is>
@@ -1327,106 +1543,325 @@
         <v>19</v>
       </c>
       <c r="C3" s="9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" s="9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" s="10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="10" t="n">
         <v>21</v>
       </c>
-      <c r="H3" s="10" t="n"/>
-      <c r="I3" s="10" t="n"/>
-      <c r="J3" s="10" t="n"/>
-      <c r="K3" s="10" t="n"/>
-      <c r="L3" s="9" t="n"/>
-      <c r="M3" s="9" t="n"/>
-      <c r="N3" s="9" t="n"/>
-      <c r="O3" s="9" t="n"/>
-      <c r="P3" s="9" t="n"/>
+      <c r="H3" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="I3" s="10" t="n">
+        <v>21</v>
+      </c>
+      <c r="J3" s="10" t="n">
+        <v>19</v>
+      </c>
+      <c r="K3" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="L3" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="M3" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="N3" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="O3" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="P3" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="R3" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="S3" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="T3" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="U3" s="9" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" ht="12.75" customHeight="1" s="7">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="A4" s="9" t="inlineStr">
         <is>
           <t>Hour</t>
         </is>
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>12:10:10</t>
+          <t>15:42:48</t>
         </is>
       </c>
       <c r="C4" s="9" t="inlineStr">
         <is>
-          <t>12:10:16</t>
+          <t>15:42:50</t>
         </is>
       </c>
       <c r="D4" s="9" t="inlineStr">
         <is>
-          <t>12:10:22</t>
+          <t>15:43:44</t>
         </is>
       </c>
       <c r="E4" s="9" t="inlineStr">
         <is>
-          <t>12:10:28</t>
+          <t>15:43:45</t>
         </is>
       </c>
       <c r="F4" s="9" t="inlineStr">
         <is>
-          <t>12:10:33</t>
-        </is>
-      </c>
-      <c r="G4" s="6" t="inlineStr">
-        <is>
-          <t>12:10:39</t>
+          <t>15:43:47</t>
+        </is>
+      </c>
+      <c r="G4" s="9" t="inlineStr">
+        <is>
+          <t>15:44:10</t>
+        </is>
+      </c>
+      <c r="H4" s="9" t="inlineStr">
+        <is>
+          <t>15:44:11</t>
+        </is>
+      </c>
+      <c r="I4" s="9" t="inlineStr">
+        <is>
+          <t>15:44:13</t>
+        </is>
+      </c>
+      <c r="J4" s="9" t="inlineStr">
+        <is>
+          <t>15:44:14</t>
+        </is>
+      </c>
+      <c r="K4" s="9" t="inlineStr">
+        <is>
+          <t>15:44:15</t>
+        </is>
+      </c>
+      <c r="L4" s="9" t="inlineStr">
+        <is>
+          <t>15:44:17</t>
+        </is>
+      </c>
+      <c r="M4" s="9" t="inlineStr">
+        <is>
+          <t>15:44:19</t>
+        </is>
+      </c>
+      <c r="N4" s="9" t="inlineStr">
+        <is>
+          <t>15:44:41</t>
+        </is>
+      </c>
+      <c r="O4" s="9" t="inlineStr">
+        <is>
+          <t>15:44:42</t>
+        </is>
+      </c>
+      <c r="P4" s="9" t="inlineStr">
+        <is>
+          <t>15:44:44</t>
+        </is>
+      </c>
+      <c r="Q4" s="9" t="inlineStr">
+        <is>
+          <t>15:44:45</t>
+        </is>
+      </c>
+      <c r="R4" s="9" t="inlineStr">
+        <is>
+          <t>15:44:47</t>
+        </is>
+      </c>
+      <c r="S4" s="9" t="inlineStr">
+        <is>
+          <t>15:44:48</t>
+        </is>
+      </c>
+      <c r="T4" s="9" t="inlineStr">
+        <is>
+          <t>15:44:50</t>
+        </is>
+      </c>
+      <c r="U4" s="9" t="inlineStr">
+        <is>
+          <t>15:44:51</t>
         </is>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1" s="7">
-      <c r="A5" s="6" t="inlineStr">
+      <c r="A5" s="9" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>04-10-22</t>
+          <t>05-10-22</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>04-10-22</t>
+          <t>05-10-22</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr">
         <is>
-          <t>04-10-22</t>
+          <t>05-10-22</t>
         </is>
       </c>
       <c r="E5" s="11" t="inlineStr">
         <is>
-          <t>04-10-22</t>
+          <t>05-10-22</t>
         </is>
       </c>
       <c r="F5" s="11" t="inlineStr">
         <is>
-          <t>04-10-22</t>
-        </is>
-      </c>
-      <c r="G5" s="6" t="inlineStr">
-        <is>
-          <t>04-10-22</t>
-        </is>
-      </c>
+          <t>05-10-22</t>
+        </is>
+      </c>
+      <c r="G5" s="9" t="inlineStr">
+        <is>
+          <t>05-10-22</t>
+        </is>
+      </c>
+      <c r="H5" s="9" t="inlineStr">
+        <is>
+          <t>05-10-22</t>
+        </is>
+      </c>
+      <c r="I5" s="9" t="inlineStr">
+        <is>
+          <t>05-10-22</t>
+        </is>
+      </c>
+      <c r="J5" s="9" t="inlineStr">
+        <is>
+          <t>05-10-22</t>
+        </is>
+      </c>
+      <c r="K5" s="9" t="inlineStr">
+        <is>
+          <t>05-10-22</t>
+        </is>
+      </c>
+      <c r="L5" s="9" t="inlineStr">
+        <is>
+          <t>05-10-22</t>
+        </is>
+      </c>
+      <c r="M5" s="9" t="inlineStr">
+        <is>
+          <t>05-10-22</t>
+        </is>
+      </c>
+      <c r="N5" s="9" t="inlineStr">
+        <is>
+          <t>05-10-22</t>
+        </is>
+      </c>
+      <c r="O5" s="9" t="inlineStr">
+        <is>
+          <t>05-10-22</t>
+        </is>
+      </c>
+      <c r="P5" s="9" t="inlineStr">
+        <is>
+          <t>05-10-22</t>
+        </is>
+      </c>
+      <c r="Q5" s="9" t="inlineStr">
+        <is>
+          <t>05-10-22</t>
+        </is>
+      </c>
+      <c r="R5" s="9" t="inlineStr">
+        <is>
+          <t>05-10-22</t>
+        </is>
+      </c>
+      <c r="S5" s="9" t="inlineStr">
+        <is>
+          <t>05-10-22</t>
+        </is>
+      </c>
+      <c r="T5" s="9" t="inlineStr">
+        <is>
+          <t>05-10-22</t>
+        </is>
+      </c>
+      <c r="U5" s="9" t="inlineStr">
+        <is>
+          <t>05-10-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="12.8" customHeight="1" s="7">
+      <c r="A6" s="9" t="n"/>
+      <c r="B6" s="9" t="n"/>
+      <c r="C6" s="9" t="n"/>
+      <c r="D6" s="9" t="n"/>
+      <c r="E6" s="9" t="n"/>
+      <c r="F6" s="9" t="n"/>
+      <c r="G6" s="9" t="n"/>
+      <c r="H6" s="9" t="n"/>
+      <c r="I6" s="9" t="n"/>
+      <c r="J6" s="9" t="n"/>
+      <c r="K6" s="9" t="n"/>
+      <c r="L6" s="9" t="n"/>
+      <c r="M6" s="9" t="n"/>
+      <c r="N6" s="9" t="n"/>
+      <c r="O6" s="9" t="n"/>
+      <c r="P6" s="9" t="n"/>
+      <c r="Q6" s="9" t="n"/>
+      <c r="R6" s="9" t="n"/>
+      <c r="S6" s="9" t="n"/>
+      <c r="T6" s="9" t="n"/>
+      <c r="U6" s="9" t="n"/>
+    </row>
+    <row r="7" ht="12.8" customHeight="1" s="7">
+      <c r="A7" s="9" t="n"/>
+      <c r="B7" s="9" t="n"/>
+      <c r="C7" s="9" t="n"/>
+      <c r="D7" s="9" t="n"/>
+      <c r="E7" s="9" t="n"/>
+      <c r="F7" s="9" t="n"/>
+      <c r="G7" s="9" t="n"/>
+      <c r="H7" s="9" t="n"/>
+      <c r="I7" s="9" t="n"/>
+      <c r="J7" s="9" t="n"/>
+      <c r="K7" s="9" t="n"/>
+      <c r="L7" s="9" t="n"/>
+      <c r="M7" s="9" t="n"/>
+      <c r="N7" s="9" t="n"/>
+      <c r="O7" s="9" t="n"/>
+      <c r="P7" s="9" t="n"/>
+      <c r="Q7" s="9" t="n"/>
+      <c r="R7" s="9" t="n"/>
+      <c r="S7" s="9" t="n"/>
+      <c r="T7" s="9" t="n"/>
+      <c r="U7" s="9" t="n"/>
     </row>
     <row r="8" ht="12.8" customHeight="1" s="7">
-      <c r="A8" s="6" t="inlineStr">
+      <c r="A8" s="9" t="inlineStr">
         <is>
           <t>Nominal</t>
         </is>
@@ -1449,19 +1884,51 @@
       <c r="G8" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="H8" s="9" t="n"/>
-      <c r="I8" s="9" t="n"/>
-      <c r="J8" s="9" t="n"/>
-      <c r="K8" s="9" t="n"/>
-      <c r="L8" s="9" t="n"/>
-      <c r="M8" s="9" t="n"/>
-      <c r="N8" s="9" t="n"/>
-      <c r="O8" s="9" t="n"/>
-      <c r="P8" s="9" t="n"/>
-      <c r="Q8" s="9" t="n"/>
+      <c r="H8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="J8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="K8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="L8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="M8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="N8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="O8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="P8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="R8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="S8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="T8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="U8" s="9" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" ht="12.8" customHeight="1" s="7">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="A9" s="9" t="inlineStr">
         <is>
           <t>Lower limit</t>
         </is>
@@ -1484,19 +1951,51 @@
       <c r="G9" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="H9" s="9" t="n"/>
-      <c r="I9" s="9" t="n"/>
-      <c r="J9" s="9" t="n"/>
-      <c r="K9" s="9" t="n"/>
-      <c r="L9" s="9" t="n"/>
-      <c r="M9" s="9" t="n"/>
-      <c r="N9" s="9" t="n"/>
-      <c r="O9" s="9" t="n"/>
-      <c r="P9" s="9" t="n"/>
-      <c r="Q9" s="9" t="n"/>
+      <c r="H9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="I9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="J9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="K9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="M9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="N9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="O9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="P9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="R9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="S9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="T9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="U9" s="9" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" ht="12.8" customHeight="1" s="7">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="A10" s="9" t="inlineStr">
         <is>
           <t>Upper limit</t>
         </is>
@@ -1519,16 +2018,48 @@
       <c r="G10" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="H10" s="9" t="n"/>
-      <c r="I10" s="9" t="n"/>
-      <c r="J10" s="9" t="n"/>
-      <c r="K10" s="9" t="n"/>
-      <c r="L10" s="9" t="n"/>
-      <c r="M10" s="9" t="n"/>
-      <c r="N10" s="9" t="n"/>
-      <c r="O10" s="9" t="n"/>
-      <c r="P10" s="9" t="n"/>
-      <c r="Q10" s="9" t="n"/>
+      <c r="H10" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="I10" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="J10" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="K10" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="L10" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="M10" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="N10" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="O10" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="P10" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q10" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="R10" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="S10" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="T10" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="U10" s="9" t="n">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/report.xlsx
+++ b/report.xlsx
@@ -1462,76 +1462,20 @@
           <t>6.</t>
         </is>
       </c>
-      <c r="H2" s="9" t="inlineStr">
-        <is>
-          <t>7.</t>
-        </is>
-      </c>
-      <c r="I2" s="9" t="inlineStr">
-        <is>
-          <t>8.</t>
-        </is>
-      </c>
-      <c r="J2" s="9" t="inlineStr">
-        <is>
-          <t>9.</t>
-        </is>
-      </c>
-      <c r="K2" s="9" t="inlineStr">
-        <is>
-          <t>10.</t>
-        </is>
-      </c>
-      <c r="L2" s="9" t="inlineStr">
-        <is>
-          <t>11.</t>
-        </is>
-      </c>
-      <c r="M2" s="9" t="inlineStr">
-        <is>
-          <t>12.</t>
-        </is>
-      </c>
-      <c r="N2" s="9" t="inlineStr">
-        <is>
-          <t>13.</t>
-        </is>
-      </c>
-      <c r="O2" s="9" t="inlineStr">
-        <is>
-          <t>14.</t>
-        </is>
-      </c>
-      <c r="P2" s="9" t="inlineStr">
-        <is>
-          <t>15.</t>
-        </is>
-      </c>
-      <c r="Q2" s="9" t="inlineStr">
-        <is>
-          <t>16.</t>
-        </is>
-      </c>
-      <c r="R2" s="9" t="inlineStr">
-        <is>
-          <t>17.</t>
-        </is>
-      </c>
-      <c r="S2" s="9" t="inlineStr">
-        <is>
-          <t>18.</t>
-        </is>
-      </c>
-      <c r="T2" s="9" t="inlineStr">
-        <is>
-          <t>19.</t>
-        </is>
-      </c>
-      <c r="U2" s="9" t="inlineStr">
-        <is>
-          <t>20.</t>
-        </is>
-      </c>
+      <c r="H2" s="9" t="n"/>
+      <c r="I2" s="9" t="n"/>
+      <c r="J2" s="9" t="n"/>
+      <c r="K2" s="9" t="n"/>
+      <c r="L2" s="9" t="n"/>
+      <c r="M2" s="9" t="n"/>
+      <c r="N2" s="9" t="n"/>
+      <c r="O2" s="9" t="n"/>
+      <c r="P2" s="9" t="n"/>
+      <c r="Q2" s="9" t="n"/>
+      <c r="R2" s="9" t="n"/>
+      <c r="S2" s="9" t="n"/>
+      <c r="T2" s="9" t="n"/>
+      <c r="U2" s="9" t="n"/>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="7">
       <c r="A3" s="9" t="inlineStr">
@@ -1540,65 +1484,37 @@
         </is>
       </c>
       <c r="B3" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="C3" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="E3" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="F3" s="10" t="n">
         <v>19</v>
       </c>
-      <c r="C3" s="9" t="n">
+      <c r="G3" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="D3" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="E3" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="F3" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="G3" s="10" t="n">
-        <v>21</v>
-      </c>
-      <c r="H3" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="I3" s="10" t="n">
-        <v>21</v>
-      </c>
-      <c r="J3" s="10" t="n">
-        <v>19</v>
-      </c>
-      <c r="K3" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="L3" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="M3" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="N3" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="O3" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="P3" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="R3" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="S3" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="T3" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="U3" s="9" t="n">
-        <v>22</v>
-      </c>
+      <c r="H3" s="10" t="n"/>
+      <c r="I3" s="10" t="n"/>
+      <c r="J3" s="10" t="n"/>
+      <c r="K3" s="10" t="n"/>
+      <c r="L3" s="9" t="n"/>
+      <c r="M3" s="9" t="n"/>
+      <c r="N3" s="9" t="n"/>
+      <c r="O3" s="9" t="n"/>
+      <c r="P3" s="9" t="n"/>
+      <c r="Q3" s="9" t="n"/>
+      <c r="R3" s="9" t="n"/>
+      <c r="S3" s="9" t="n"/>
+      <c r="T3" s="9" t="n"/>
+      <c r="U3" s="9" t="n"/>
     </row>
     <row r="4" ht="12.75" customHeight="1" s="7">
       <c r="A4" s="9" t="inlineStr">
@@ -1608,104 +1524,48 @@
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>15:42:48</t>
+          <t>21:04:34</t>
         </is>
       </c>
       <c r="C4" s="9" t="inlineStr">
         <is>
-          <t>15:42:50</t>
+          <t>21:04:40</t>
         </is>
       </c>
       <c r="D4" s="9" t="inlineStr">
         <is>
-          <t>15:43:44</t>
+          <t>21:04:55</t>
         </is>
       </c>
       <c r="E4" s="9" t="inlineStr">
         <is>
-          <t>15:43:45</t>
+          <t>21:05:00</t>
         </is>
       </c>
       <c r="F4" s="9" t="inlineStr">
         <is>
-          <t>15:43:47</t>
+          <t>21:05:16</t>
         </is>
       </c>
       <c r="G4" s="9" t="inlineStr">
         <is>
-          <t>15:44:10</t>
-        </is>
-      </c>
-      <c r="H4" s="9" t="inlineStr">
-        <is>
-          <t>15:44:11</t>
-        </is>
-      </c>
-      <c r="I4" s="9" t="inlineStr">
-        <is>
-          <t>15:44:13</t>
-        </is>
-      </c>
-      <c r="J4" s="9" t="inlineStr">
-        <is>
-          <t>15:44:14</t>
-        </is>
-      </c>
-      <c r="K4" s="9" t="inlineStr">
-        <is>
-          <t>15:44:15</t>
-        </is>
-      </c>
-      <c r="L4" s="9" t="inlineStr">
-        <is>
-          <t>15:44:17</t>
-        </is>
-      </c>
-      <c r="M4" s="9" t="inlineStr">
-        <is>
-          <t>15:44:19</t>
-        </is>
-      </c>
-      <c r="N4" s="9" t="inlineStr">
-        <is>
-          <t>15:44:41</t>
-        </is>
-      </c>
-      <c r="O4" s="9" t="inlineStr">
-        <is>
-          <t>15:44:42</t>
-        </is>
-      </c>
-      <c r="P4" s="9" t="inlineStr">
-        <is>
-          <t>15:44:44</t>
-        </is>
-      </c>
-      <c r="Q4" s="9" t="inlineStr">
-        <is>
-          <t>15:44:45</t>
-        </is>
-      </c>
-      <c r="R4" s="9" t="inlineStr">
-        <is>
-          <t>15:44:47</t>
-        </is>
-      </c>
-      <c r="S4" s="9" t="inlineStr">
-        <is>
-          <t>15:44:48</t>
-        </is>
-      </c>
-      <c r="T4" s="9" t="inlineStr">
-        <is>
-          <t>15:44:50</t>
-        </is>
-      </c>
-      <c r="U4" s="9" t="inlineStr">
-        <is>
-          <t>15:44:51</t>
-        </is>
-      </c>
+          <t>21:05:22</t>
+        </is>
+      </c>
+      <c r="H4" s="9" t="n"/>
+      <c r="I4" s="9" t="n"/>
+      <c r="J4" s="9" t="n"/>
+      <c r="K4" s="9" t="n"/>
+      <c r="L4" s="9" t="n"/>
+      <c r="M4" s="9" t="n"/>
+      <c r="N4" s="9" t="n"/>
+      <c r="O4" s="9" t="n"/>
+      <c r="P4" s="9" t="n"/>
+      <c r="Q4" s="9" t="n"/>
+      <c r="R4" s="9" t="n"/>
+      <c r="S4" s="9" t="n"/>
+      <c r="T4" s="9" t="n"/>
+      <c r="U4" s="9" t="n"/>
     </row>
     <row r="5" ht="12.75" customHeight="1" s="7">
       <c r="A5" s="9" t="inlineStr">
@@ -1715,104 +1575,48 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>05-10-22</t>
+          <t>06-10-22</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>05-10-22</t>
+          <t>06-10-22</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr">
         <is>
-          <t>05-10-22</t>
+          <t>06-10-22</t>
         </is>
       </c>
       <c r="E5" s="11" t="inlineStr">
         <is>
-          <t>05-10-22</t>
+          <t>06-10-22</t>
         </is>
       </c>
       <c r="F5" s="11" t="inlineStr">
         <is>
-          <t>05-10-22</t>
+          <t>06-10-22</t>
         </is>
       </c>
       <c r="G5" s="9" t="inlineStr">
         <is>
-          <t>05-10-22</t>
-        </is>
-      </c>
-      <c r="H5" s="9" t="inlineStr">
-        <is>
-          <t>05-10-22</t>
-        </is>
-      </c>
-      <c r="I5" s="9" t="inlineStr">
-        <is>
-          <t>05-10-22</t>
-        </is>
-      </c>
-      <c r="J5" s="9" t="inlineStr">
-        <is>
-          <t>05-10-22</t>
-        </is>
-      </c>
-      <c r="K5" s="9" t="inlineStr">
-        <is>
-          <t>05-10-22</t>
-        </is>
-      </c>
-      <c r="L5" s="9" t="inlineStr">
-        <is>
-          <t>05-10-22</t>
-        </is>
-      </c>
-      <c r="M5" s="9" t="inlineStr">
-        <is>
-          <t>05-10-22</t>
-        </is>
-      </c>
-      <c r="N5" s="9" t="inlineStr">
-        <is>
-          <t>05-10-22</t>
-        </is>
-      </c>
-      <c r="O5" s="9" t="inlineStr">
-        <is>
-          <t>05-10-22</t>
-        </is>
-      </c>
-      <c r="P5" s="9" t="inlineStr">
-        <is>
-          <t>05-10-22</t>
-        </is>
-      </c>
-      <c r="Q5" s="9" t="inlineStr">
-        <is>
-          <t>05-10-22</t>
-        </is>
-      </c>
-      <c r="R5" s="9" t="inlineStr">
-        <is>
-          <t>05-10-22</t>
-        </is>
-      </c>
-      <c r="S5" s="9" t="inlineStr">
-        <is>
-          <t>05-10-22</t>
-        </is>
-      </c>
-      <c r="T5" s="9" t="inlineStr">
-        <is>
-          <t>05-10-22</t>
-        </is>
-      </c>
-      <c r="U5" s="9" t="inlineStr">
-        <is>
-          <t>05-10-22</t>
-        </is>
-      </c>
+          <t>06-10-22</t>
+        </is>
+      </c>
+      <c r="H5" s="9" t="n"/>
+      <c r="I5" s="9" t="n"/>
+      <c r="J5" s="9" t="n"/>
+      <c r="K5" s="9" t="n"/>
+      <c r="L5" s="9" t="n"/>
+      <c r="M5" s="9" t="n"/>
+      <c r="N5" s="9" t="n"/>
+      <c r="O5" s="9" t="n"/>
+      <c r="P5" s="9" t="n"/>
+      <c r="Q5" s="9" t="n"/>
+      <c r="R5" s="9" t="n"/>
+      <c r="S5" s="9" t="n"/>
+      <c r="T5" s="9" t="n"/>
+      <c r="U5" s="9" t="n"/>
     </row>
     <row r="6" ht="12.8" customHeight="1" s="7">
       <c r="A6" s="9" t="n"/>
@@ -1884,48 +1688,20 @@
       <c r="G8" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="H8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="J8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="K8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="L8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="M8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="N8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="O8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="P8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="R8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="S8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="T8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="U8" s="9" t="n">
-        <v>20</v>
-      </c>
+      <c r="H8" s="9" t="n"/>
+      <c r="I8" s="9" t="n"/>
+      <c r="J8" s="9" t="n"/>
+      <c r="K8" s="9" t="n"/>
+      <c r="L8" s="9" t="n"/>
+      <c r="M8" s="9" t="n"/>
+      <c r="N8" s="9" t="n"/>
+      <c r="O8" s="9" t="n"/>
+      <c r="P8" s="9" t="n"/>
+      <c r="Q8" s="9" t="n"/>
+      <c r="R8" s="9" t="n"/>
+      <c r="S8" s="9" t="n"/>
+      <c r="T8" s="9" t="n"/>
+      <c r="U8" s="9" t="n"/>
     </row>
     <row r="9" ht="12.8" customHeight="1" s="7">
       <c r="A9" s="9" t="inlineStr">
@@ -1951,48 +1727,20 @@
       <c r="G9" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="H9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="I9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="J9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="K9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="L9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="M9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="N9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="O9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="P9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="R9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="S9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="T9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="U9" s="9" t="n">
-        <v>18</v>
-      </c>
+      <c r="H9" s="9" t="n"/>
+      <c r="I9" s="9" t="n"/>
+      <c r="J9" s="9" t="n"/>
+      <c r="K9" s="9" t="n"/>
+      <c r="L9" s="9" t="n"/>
+      <c r="M9" s="9" t="n"/>
+      <c r="N9" s="9" t="n"/>
+      <c r="O9" s="9" t="n"/>
+      <c r="P9" s="9" t="n"/>
+      <c r="Q9" s="9" t="n"/>
+      <c r="R9" s="9" t="n"/>
+      <c r="S9" s="9" t="n"/>
+      <c r="T9" s="9" t="n"/>
+      <c r="U9" s="9" t="n"/>
     </row>
     <row r="10" ht="12.8" customHeight="1" s="7">
       <c r="A10" s="9" t="inlineStr">
@@ -2018,48 +1766,20 @@
       <c r="G10" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="H10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="I10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="J10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="K10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="L10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="M10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="N10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="O10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="P10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="Q10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="R10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="S10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="T10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="U10" s="9" t="n">
-        <v>22</v>
-      </c>
+      <c r="H10" s="9" t="n"/>
+      <c r="I10" s="9" t="n"/>
+      <c r="J10" s="9" t="n"/>
+      <c r="K10" s="9" t="n"/>
+      <c r="L10" s="9" t="n"/>
+      <c r="M10" s="9" t="n"/>
+      <c r="N10" s="9" t="n"/>
+      <c r="O10" s="9" t="n"/>
+      <c r="P10" s="9" t="n"/>
+      <c r="Q10" s="9" t="n"/>
+      <c r="R10" s="9" t="n"/>
+      <c r="S10" s="9" t="n"/>
+      <c r="T10" s="9" t="n"/>
+      <c r="U10" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/report.xlsx
+++ b/report.xlsx
@@ -1462,13 +1462,41 @@
           <t>6.</t>
         </is>
       </c>
-      <c r="H2" s="9" t="n"/>
-      <c r="I2" s="9" t="n"/>
-      <c r="J2" s="9" t="n"/>
-      <c r="K2" s="9" t="n"/>
-      <c r="L2" s="9" t="n"/>
-      <c r="M2" s="9" t="n"/>
-      <c r="N2" s="9" t="n"/>
+      <c r="H2" s="9" t="inlineStr">
+        <is>
+          <t>7.</t>
+        </is>
+      </c>
+      <c r="I2" s="9" t="inlineStr">
+        <is>
+          <t>8.</t>
+        </is>
+      </c>
+      <c r="J2" s="9" t="inlineStr">
+        <is>
+          <t>9.</t>
+        </is>
+      </c>
+      <c r="K2" s="9" t="inlineStr">
+        <is>
+          <t>10.</t>
+        </is>
+      </c>
+      <c r="L2" s="9" t="inlineStr">
+        <is>
+          <t>11.</t>
+        </is>
+      </c>
+      <c r="M2" s="9" t="inlineStr">
+        <is>
+          <t>12.</t>
+        </is>
+      </c>
+      <c r="N2" s="9" t="inlineStr">
+        <is>
+          <t>13.</t>
+        </is>
+      </c>
       <c r="O2" s="9" t="n"/>
       <c r="P2" s="9" t="n"/>
       <c r="Q2" s="9" t="n"/>
@@ -1487,27 +1515,41 @@
         <v>21</v>
       </c>
       <c r="C3" s="9" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D3" s="9" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E3" s="9" t="n">
         <v>21</v>
       </c>
       <c r="F3" s="10" t="n">
+        <v>22</v>
+      </c>
+      <c r="G3" s="10" t="n">
+        <v>21</v>
+      </c>
+      <c r="H3" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="I3" s="10" t="n">
         <v>19</v>
       </c>
-      <c r="G3" s="10" t="n">
+      <c r="J3" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="H3" s="10" t="n"/>
-      <c r="I3" s="10" t="n"/>
-      <c r="J3" s="10" t="n"/>
-      <c r="K3" s="10" t="n"/>
-      <c r="L3" s="9" t="n"/>
-      <c r="M3" s="9" t="n"/>
-      <c r="N3" s="9" t="n"/>
+      <c r="K3" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="L3" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="M3" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="N3" s="9" t="n">
+        <v>21</v>
+      </c>
       <c r="O3" s="9" t="n"/>
       <c r="P3" s="9" t="n"/>
       <c r="Q3" s="9" t="n"/>
@@ -1524,41 +1566,69 @@
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>21:04:34</t>
+          <t>09:39:25</t>
         </is>
       </c>
       <c r="C4" s="9" t="inlineStr">
         <is>
-          <t>21:04:40</t>
+          <t>09:39:31</t>
         </is>
       </c>
       <c r="D4" s="9" t="inlineStr">
         <is>
-          <t>21:04:55</t>
+          <t>09:39:37</t>
         </is>
       </c>
       <c r="E4" s="9" t="inlineStr">
         <is>
-          <t>21:05:00</t>
+          <t>09:39:43</t>
         </is>
       </c>
       <c r="F4" s="9" t="inlineStr">
         <is>
-          <t>21:05:16</t>
+          <t>09:39:49</t>
         </is>
       </c>
       <c r="G4" s="9" t="inlineStr">
         <is>
-          <t>21:05:22</t>
-        </is>
-      </c>
-      <c r="H4" s="9" t="n"/>
-      <c r="I4" s="9" t="n"/>
-      <c r="J4" s="9" t="n"/>
-      <c r="K4" s="9" t="n"/>
-      <c r="L4" s="9" t="n"/>
-      <c r="M4" s="9" t="n"/>
-      <c r="N4" s="9" t="n"/>
+          <t>09:39:55</t>
+        </is>
+      </c>
+      <c r="H4" s="9" t="inlineStr">
+        <is>
+          <t>09:41:02</t>
+        </is>
+      </c>
+      <c r="I4" s="9" t="inlineStr">
+        <is>
+          <t>09:41:20</t>
+        </is>
+      </c>
+      <c r="J4" s="9" t="inlineStr">
+        <is>
+          <t>10:19:20</t>
+        </is>
+      </c>
+      <c r="K4" s="9" t="inlineStr">
+        <is>
+          <t>10:58:05</t>
+        </is>
+      </c>
+      <c r="L4" s="9" t="inlineStr">
+        <is>
+          <t>11:01:49</t>
+        </is>
+      </c>
+      <c r="M4" s="9" t="inlineStr">
+        <is>
+          <t>11:01:56</t>
+        </is>
+      </c>
+      <c r="N4" s="9" t="inlineStr">
+        <is>
+          <t>11:02:02</t>
+        </is>
+      </c>
       <c r="O4" s="9" t="n"/>
       <c r="P4" s="9" t="n"/>
       <c r="Q4" s="9" t="n"/>
@@ -1575,41 +1645,69 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>06-10-22</t>
+          <t>19-10-22</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>06-10-22</t>
+          <t>19-10-22</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr">
         <is>
-          <t>06-10-22</t>
+          <t>19-10-22</t>
         </is>
       </c>
       <c r="E5" s="11" t="inlineStr">
         <is>
-          <t>06-10-22</t>
+          <t>19-10-22</t>
         </is>
       </c>
       <c r="F5" s="11" t="inlineStr">
         <is>
-          <t>06-10-22</t>
+          <t>19-10-22</t>
         </is>
       </c>
       <c r="G5" s="9" t="inlineStr">
         <is>
-          <t>06-10-22</t>
-        </is>
-      </c>
-      <c r="H5" s="9" t="n"/>
-      <c r="I5" s="9" t="n"/>
-      <c r="J5" s="9" t="n"/>
-      <c r="K5" s="9" t="n"/>
-      <c r="L5" s="9" t="n"/>
-      <c r="M5" s="9" t="n"/>
-      <c r="N5" s="9" t="n"/>
+          <t>19-10-22</t>
+        </is>
+      </c>
+      <c r="H5" s="9" t="inlineStr">
+        <is>
+          <t>19-10-22</t>
+        </is>
+      </c>
+      <c r="I5" s="9" t="inlineStr">
+        <is>
+          <t>19-10-22</t>
+        </is>
+      </c>
+      <c r="J5" s="9" t="inlineStr">
+        <is>
+          <t>19-10-22</t>
+        </is>
+      </c>
+      <c r="K5" s="9" t="inlineStr">
+        <is>
+          <t>20-10-22</t>
+        </is>
+      </c>
+      <c r="L5" s="9" t="inlineStr">
+        <is>
+          <t>20-10-22</t>
+        </is>
+      </c>
+      <c r="M5" s="9" t="inlineStr">
+        <is>
+          <t>20-10-22</t>
+        </is>
+      </c>
+      <c r="N5" s="9" t="inlineStr">
+        <is>
+          <t>20-10-22</t>
+        </is>
+      </c>
       <c r="O5" s="9" t="n"/>
       <c r="P5" s="9" t="n"/>
       <c r="Q5" s="9" t="n"/>
@@ -1688,13 +1786,27 @@
       <c r="G8" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="H8" s="9" t="n"/>
-      <c r="I8" s="9" t="n"/>
-      <c r="J8" s="9" t="n"/>
-      <c r="K8" s="9" t="n"/>
-      <c r="L8" s="9" t="n"/>
-      <c r="M8" s="9" t="n"/>
-      <c r="N8" s="9" t="n"/>
+      <c r="H8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="J8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="K8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="L8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="M8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="N8" s="9" t="n">
+        <v>20</v>
+      </c>
       <c r="O8" s="9" t="n"/>
       <c r="P8" s="9" t="n"/>
       <c r="Q8" s="9" t="n"/>
@@ -1727,13 +1839,27 @@
       <c r="G9" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="H9" s="9" t="n"/>
-      <c r="I9" s="9" t="n"/>
-      <c r="J9" s="9" t="n"/>
-      <c r="K9" s="9" t="n"/>
-      <c r="L9" s="9" t="n"/>
-      <c r="M9" s="9" t="n"/>
-      <c r="N9" s="9" t="n"/>
+      <c r="H9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="I9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="J9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="K9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="M9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="N9" s="9" t="n">
+        <v>18</v>
+      </c>
       <c r="O9" s="9" t="n"/>
       <c r="P9" s="9" t="n"/>
       <c r="Q9" s="9" t="n"/>
@@ -1766,13 +1892,27 @@
       <c r="G10" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="H10" s="9" t="n"/>
-      <c r="I10" s="9" t="n"/>
-      <c r="J10" s="9" t="n"/>
-      <c r="K10" s="9" t="n"/>
-      <c r="L10" s="9" t="n"/>
-      <c r="M10" s="9" t="n"/>
-      <c r="N10" s="9" t="n"/>
+      <c r="H10" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="I10" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="J10" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="K10" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="L10" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="M10" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="N10" s="9" t="n">
+        <v>22</v>
+      </c>
       <c r="O10" s="9" t="n"/>
       <c r="P10" s="9" t="n"/>
       <c r="Q10" s="9" t="n"/>

--- a/report.xlsx
+++ b/report.xlsx
@@ -1442,61 +1442,17 @@
           <t>2.</t>
         </is>
       </c>
-      <c r="D2" s="9" t="inlineStr">
-        <is>
-          <t>3.</t>
-        </is>
-      </c>
-      <c r="E2" s="9" t="inlineStr">
-        <is>
-          <t>4.</t>
-        </is>
-      </c>
-      <c r="F2" s="9" t="inlineStr">
-        <is>
-          <t>5.</t>
-        </is>
-      </c>
-      <c r="G2" s="9" t="inlineStr">
-        <is>
-          <t>6.</t>
-        </is>
-      </c>
-      <c r="H2" s="9" t="inlineStr">
-        <is>
-          <t>7.</t>
-        </is>
-      </c>
-      <c r="I2" s="9" t="inlineStr">
-        <is>
-          <t>8.</t>
-        </is>
-      </c>
-      <c r="J2" s="9" t="inlineStr">
-        <is>
-          <t>9.</t>
-        </is>
-      </c>
-      <c r="K2" s="9" t="inlineStr">
-        <is>
-          <t>10.</t>
-        </is>
-      </c>
-      <c r="L2" s="9" t="inlineStr">
-        <is>
-          <t>11.</t>
-        </is>
-      </c>
-      <c r="M2" s="9" t="inlineStr">
-        <is>
-          <t>12.</t>
-        </is>
-      </c>
-      <c r="N2" s="9" t="inlineStr">
-        <is>
-          <t>13.</t>
-        </is>
-      </c>
+      <c r="D2" s="9" t="n"/>
+      <c r="E2" s="9" t="n"/>
+      <c r="F2" s="9" t="n"/>
+      <c r="G2" s="9" t="n"/>
+      <c r="H2" s="9" t="n"/>
+      <c r="I2" s="9" t="n"/>
+      <c r="J2" s="9" t="n"/>
+      <c r="K2" s="9" t="n"/>
+      <c r="L2" s="9" t="n"/>
+      <c r="M2" s="9" t="n"/>
+      <c r="N2" s="9" t="n"/>
       <c r="O2" s="9" t="n"/>
       <c r="P2" s="9" t="n"/>
       <c r="Q2" s="9" t="n"/>
@@ -1517,39 +1473,17 @@
       <c r="C3" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="D3" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="E3" s="9" t="n">
-        <v>21</v>
-      </c>
-      <c r="F3" s="10" t="n">
-        <v>22</v>
-      </c>
-      <c r="G3" s="10" t="n">
-        <v>21</v>
-      </c>
-      <c r="H3" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="I3" s="10" t="n">
-        <v>19</v>
-      </c>
-      <c r="J3" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="K3" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="L3" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="M3" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="N3" s="9" t="n">
-        <v>21</v>
-      </c>
+      <c r="D3" s="9" t="n"/>
+      <c r="E3" s="9" t="n"/>
+      <c r="F3" s="10" t="n"/>
+      <c r="G3" s="10" t="n"/>
+      <c r="H3" s="10" t="n"/>
+      <c r="I3" s="10" t="n"/>
+      <c r="J3" s="10" t="n"/>
+      <c r="K3" s="10" t="n"/>
+      <c r="L3" s="9" t="n"/>
+      <c r="M3" s="9" t="n"/>
+      <c r="N3" s="9" t="n"/>
       <c r="O3" s="9" t="n"/>
       <c r="P3" s="9" t="n"/>
       <c r="Q3" s="9" t="n"/>
@@ -1566,69 +1500,25 @@
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>09:39:25</t>
+          <t>11:59:40</t>
         </is>
       </c>
       <c r="C4" s="9" t="inlineStr">
         <is>
-          <t>09:39:31</t>
+          <t>11:59:46</t>
         </is>
       </c>
-      <c r="D4" s="9" t="inlineStr">
-        <is>
-          <t>09:39:37</t>
-        </is>
-      </c>
-      <c r="E4" s="9" t="inlineStr">
-        <is>
-          <t>09:39:43</t>
-        </is>
-      </c>
-      <c r="F4" s="9" t="inlineStr">
-        <is>
-          <t>09:39:49</t>
-        </is>
-      </c>
-      <c r="G4" s="9" t="inlineStr">
-        <is>
-          <t>09:39:55</t>
-        </is>
-      </c>
-      <c r="H4" s="9" t="inlineStr">
-        <is>
-          <t>09:41:02</t>
-        </is>
-      </c>
-      <c r="I4" s="9" t="inlineStr">
-        <is>
-          <t>09:41:20</t>
-        </is>
-      </c>
-      <c r="J4" s="9" t="inlineStr">
-        <is>
-          <t>10:19:20</t>
-        </is>
-      </c>
-      <c r="K4" s="9" t="inlineStr">
-        <is>
-          <t>10:58:05</t>
-        </is>
-      </c>
-      <c r="L4" s="9" t="inlineStr">
-        <is>
-          <t>11:01:49</t>
-        </is>
-      </c>
-      <c r="M4" s="9" t="inlineStr">
-        <is>
-          <t>11:01:56</t>
-        </is>
-      </c>
-      <c r="N4" s="9" t="inlineStr">
-        <is>
-          <t>11:02:02</t>
-        </is>
-      </c>
+      <c r="D4" s="9" t="n"/>
+      <c r="E4" s="9" t="n"/>
+      <c r="F4" s="9" t="n"/>
+      <c r="G4" s="9" t="n"/>
+      <c r="H4" s="9" t="n"/>
+      <c r="I4" s="9" t="n"/>
+      <c r="J4" s="9" t="n"/>
+      <c r="K4" s="9" t="n"/>
+      <c r="L4" s="9" t="n"/>
+      <c r="M4" s="9" t="n"/>
+      <c r="N4" s="9" t="n"/>
       <c r="O4" s="9" t="n"/>
       <c r="P4" s="9" t="n"/>
       <c r="Q4" s="9" t="n"/>
@@ -1645,69 +1535,25 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>19-10-22</t>
+          <t>21-10-22</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>19-10-22</t>
+          <t>21-10-22</t>
         </is>
       </c>
-      <c r="D5" s="11" t="inlineStr">
-        <is>
-          <t>19-10-22</t>
-        </is>
-      </c>
-      <c r="E5" s="11" t="inlineStr">
-        <is>
-          <t>19-10-22</t>
-        </is>
-      </c>
-      <c r="F5" s="11" t="inlineStr">
-        <is>
-          <t>19-10-22</t>
-        </is>
-      </c>
-      <c r="G5" s="9" t="inlineStr">
-        <is>
-          <t>19-10-22</t>
-        </is>
-      </c>
-      <c r="H5" s="9" t="inlineStr">
-        <is>
-          <t>19-10-22</t>
-        </is>
-      </c>
-      <c r="I5" s="9" t="inlineStr">
-        <is>
-          <t>19-10-22</t>
-        </is>
-      </c>
-      <c r="J5" s="9" t="inlineStr">
-        <is>
-          <t>19-10-22</t>
-        </is>
-      </c>
-      <c r="K5" s="9" t="inlineStr">
-        <is>
-          <t>20-10-22</t>
-        </is>
-      </c>
-      <c r="L5" s="9" t="inlineStr">
-        <is>
-          <t>20-10-22</t>
-        </is>
-      </c>
-      <c r="M5" s="9" t="inlineStr">
-        <is>
-          <t>20-10-22</t>
-        </is>
-      </c>
-      <c r="N5" s="9" t="inlineStr">
-        <is>
-          <t>20-10-22</t>
-        </is>
-      </c>
+      <c r="D5" s="11" t="n"/>
+      <c r="E5" s="11" t="n"/>
+      <c r="F5" s="11" t="n"/>
+      <c r="G5" s="9" t="n"/>
+      <c r="H5" s="9" t="n"/>
+      <c r="I5" s="9" t="n"/>
+      <c r="J5" s="9" t="n"/>
+      <c r="K5" s="9" t="n"/>
+      <c r="L5" s="9" t="n"/>
+      <c r="M5" s="9" t="n"/>
+      <c r="N5" s="9" t="n"/>
       <c r="O5" s="9" t="n"/>
       <c r="P5" s="9" t="n"/>
       <c r="Q5" s="9" t="n"/>
@@ -1774,39 +1620,17 @@
       <c r="C8" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="D8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="E8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="F8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="G8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="H8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="J8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="K8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="L8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="M8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="N8" s="9" t="n">
-        <v>20</v>
-      </c>
+      <c r="D8" s="9" t="n"/>
+      <c r="E8" s="9" t="n"/>
+      <c r="F8" s="9" t="n"/>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="9" t="n"/>
+      <c r="I8" s="9" t="n"/>
+      <c r="J8" s="9" t="n"/>
+      <c r="K8" s="9" t="n"/>
+      <c r="L8" s="9" t="n"/>
+      <c r="M8" s="9" t="n"/>
+      <c r="N8" s="9" t="n"/>
       <c r="O8" s="9" t="n"/>
       <c r="P8" s="9" t="n"/>
       <c r="Q8" s="9" t="n"/>
@@ -1827,39 +1651,17 @@
       <c r="C9" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="D9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="E9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="F9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="G9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="H9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="I9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="J9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="K9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="L9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="M9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="N9" s="9" t="n">
-        <v>18</v>
-      </c>
+      <c r="D9" s="9" t="n"/>
+      <c r="E9" s="9" t="n"/>
+      <c r="F9" s="9" t="n"/>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="9" t="n"/>
+      <c r="I9" s="9" t="n"/>
+      <c r="J9" s="9" t="n"/>
+      <c r="K9" s="9" t="n"/>
+      <c r="L9" s="9" t="n"/>
+      <c r="M9" s="9" t="n"/>
+      <c r="N9" s="9" t="n"/>
       <c r="O9" s="9" t="n"/>
       <c r="P9" s="9" t="n"/>
       <c r="Q9" s="9" t="n"/>
@@ -1880,39 +1682,17 @@
       <c r="C10" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="D10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="E10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="F10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="G10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="H10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="I10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="J10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="K10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="L10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="M10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="N10" s="9" t="n">
-        <v>22</v>
-      </c>
+      <c r="D10" s="9" t="n"/>
+      <c r="E10" s="9" t="n"/>
+      <c r="F10" s="9" t="n"/>
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="9" t="n"/>
+      <c r="I10" s="9" t="n"/>
+      <c r="J10" s="9" t="n"/>
+      <c r="K10" s="9" t="n"/>
+      <c r="L10" s="9" t="n"/>
+      <c r="M10" s="9" t="n"/>
+      <c r="N10" s="9" t="n"/>
       <c r="O10" s="9" t="n"/>
       <c r="P10" s="9" t="n"/>
       <c r="Q10" s="9" t="n"/>

--- a/report.xlsx
+++ b/report.xlsx
@@ -1442,21 +1442,81 @@
           <t>2.</t>
         </is>
       </c>
-      <c r="D2" s="9" t="n"/>
-      <c r="E2" s="9" t="n"/>
-      <c r="F2" s="9" t="n"/>
-      <c r="G2" s="9" t="n"/>
-      <c r="H2" s="9" t="n"/>
-      <c r="I2" s="9" t="n"/>
-      <c r="J2" s="9" t="n"/>
-      <c r="K2" s="9" t="n"/>
-      <c r="L2" s="9" t="n"/>
-      <c r="M2" s="9" t="n"/>
-      <c r="N2" s="9" t="n"/>
-      <c r="O2" s="9" t="n"/>
-      <c r="P2" s="9" t="n"/>
-      <c r="Q2" s="9" t="n"/>
-      <c r="R2" s="9" t="n"/>
+      <c r="D2" s="9" t="inlineStr">
+        <is>
+          <t>3.</t>
+        </is>
+      </c>
+      <c r="E2" s="9" t="inlineStr">
+        <is>
+          <t>4.</t>
+        </is>
+      </c>
+      <c r="F2" s="9" t="inlineStr">
+        <is>
+          <t>5.</t>
+        </is>
+      </c>
+      <c r="G2" s="9" t="inlineStr">
+        <is>
+          <t>6.</t>
+        </is>
+      </c>
+      <c r="H2" s="9" t="inlineStr">
+        <is>
+          <t>7.</t>
+        </is>
+      </c>
+      <c r="I2" s="9" t="inlineStr">
+        <is>
+          <t>8.</t>
+        </is>
+      </c>
+      <c r="J2" s="9" t="inlineStr">
+        <is>
+          <t>9.</t>
+        </is>
+      </c>
+      <c r="K2" s="9" t="inlineStr">
+        <is>
+          <t>10.</t>
+        </is>
+      </c>
+      <c r="L2" s="9" t="inlineStr">
+        <is>
+          <t>11.</t>
+        </is>
+      </c>
+      <c r="M2" s="9" t="inlineStr">
+        <is>
+          <t>12.</t>
+        </is>
+      </c>
+      <c r="N2" s="9" t="inlineStr">
+        <is>
+          <t>13.</t>
+        </is>
+      </c>
+      <c r="O2" s="9" t="inlineStr">
+        <is>
+          <t>14.</t>
+        </is>
+      </c>
+      <c r="P2" s="9" t="inlineStr">
+        <is>
+          <t>15.</t>
+        </is>
+      </c>
+      <c r="Q2" s="9" t="inlineStr">
+        <is>
+          <t>16.</t>
+        </is>
+      </c>
+      <c r="R2" s="9" t="inlineStr">
+        <is>
+          <t>17.</t>
+        </is>
+      </c>
       <c r="S2" s="9" t="n"/>
       <c r="T2" s="9" t="n"/>
       <c r="U2" s="9" t="n"/>
@@ -1468,26 +1528,56 @@
         </is>
       </c>
       <c r="B3" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="C3" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="C3" s="9" t="n">
+      <c r="D3" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="D3" s="9" t="n"/>
-      <c r="E3" s="9" t="n"/>
-      <c r="F3" s="10" t="n"/>
-      <c r="G3" s="10" t="n"/>
-      <c r="H3" s="10" t="n"/>
-      <c r="I3" s="10" t="n"/>
-      <c r="J3" s="10" t="n"/>
-      <c r="K3" s="10" t="n"/>
-      <c r="L3" s="9" t="n"/>
-      <c r="M3" s="9" t="n"/>
-      <c r="N3" s="9" t="n"/>
-      <c r="O3" s="9" t="n"/>
-      <c r="P3" s="9" t="n"/>
-      <c r="Q3" s="9" t="n"/>
-      <c r="R3" s="9" t="n"/>
+      <c r="E3" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="F3" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="G3" s="10" t="n">
+        <v>21</v>
+      </c>
+      <c r="H3" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="I3" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="J3" s="10" t="n">
+        <v>19</v>
+      </c>
+      <c r="K3" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="L3" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="M3" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="N3" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="O3" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="P3" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="R3" s="9" t="n">
+        <v>18</v>
+      </c>
       <c r="S3" s="9" t="n"/>
       <c r="T3" s="9" t="n"/>
       <c r="U3" s="9" t="n"/>
@@ -1500,29 +1590,89 @@
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>11:59:40</t>
+          <t>10:49:11</t>
         </is>
       </c>
       <c r="C4" s="9" t="inlineStr">
         <is>
-          <t>11:59:46</t>
-        </is>
-      </c>
-      <c r="D4" s="9" t="n"/>
-      <c r="E4" s="9" t="n"/>
-      <c r="F4" s="9" t="n"/>
-      <c r="G4" s="9" t="n"/>
-      <c r="H4" s="9" t="n"/>
-      <c r="I4" s="9" t="n"/>
-      <c r="J4" s="9" t="n"/>
-      <c r="K4" s="9" t="n"/>
-      <c r="L4" s="9" t="n"/>
-      <c r="M4" s="9" t="n"/>
-      <c r="N4" s="9" t="n"/>
-      <c r="O4" s="9" t="n"/>
-      <c r="P4" s="9" t="n"/>
-      <c r="Q4" s="9" t="n"/>
-      <c r="R4" s="9" t="n"/>
+          <t>10:49:16</t>
+        </is>
+      </c>
+      <c r="D4" s="9" t="inlineStr">
+        <is>
+          <t>10:49:22</t>
+        </is>
+      </c>
+      <c r="E4" s="9" t="inlineStr">
+        <is>
+          <t>10:51:42</t>
+        </is>
+      </c>
+      <c r="F4" s="9" t="inlineStr">
+        <is>
+          <t>10:51:47</t>
+        </is>
+      </c>
+      <c r="G4" s="9" t="inlineStr">
+        <is>
+          <t>10:51:53</t>
+        </is>
+      </c>
+      <c r="H4" s="9" t="inlineStr">
+        <is>
+          <t>10:51:58</t>
+        </is>
+      </c>
+      <c r="I4" s="9" t="inlineStr">
+        <is>
+          <t>10:52:03</t>
+        </is>
+      </c>
+      <c r="J4" s="9" t="inlineStr">
+        <is>
+          <t>10:52:33</t>
+        </is>
+      </c>
+      <c r="K4" s="9" t="inlineStr">
+        <is>
+          <t>10:52:48</t>
+        </is>
+      </c>
+      <c r="L4" s="9" t="inlineStr">
+        <is>
+          <t>10:52:57</t>
+        </is>
+      </c>
+      <c r="M4" s="9" t="inlineStr">
+        <is>
+          <t>10:53:06</t>
+        </is>
+      </c>
+      <c r="N4" s="9" t="inlineStr">
+        <is>
+          <t>10:53:12</t>
+        </is>
+      </c>
+      <c r="O4" s="9" t="inlineStr">
+        <is>
+          <t>10:53:18</t>
+        </is>
+      </c>
+      <c r="P4" s="9" t="inlineStr">
+        <is>
+          <t>10:53:28</t>
+        </is>
+      </c>
+      <c r="Q4" s="9" t="inlineStr">
+        <is>
+          <t>10:53:33</t>
+        </is>
+      </c>
+      <c r="R4" s="9" t="inlineStr">
+        <is>
+          <t>10:53:38</t>
+        </is>
+      </c>
       <c r="S4" s="9" t="n"/>
       <c r="T4" s="9" t="n"/>
       <c r="U4" s="9" t="n"/>
@@ -1535,29 +1685,89 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>21-10-22</t>
+          <t>25-10-22</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>21-10-22</t>
-        </is>
-      </c>
-      <c r="D5" s="11" t="n"/>
-      <c r="E5" s="11" t="n"/>
-      <c r="F5" s="11" t="n"/>
-      <c r="G5" s="9" t="n"/>
-      <c r="H5" s="9" t="n"/>
-      <c r="I5" s="9" t="n"/>
-      <c r="J5" s="9" t="n"/>
-      <c r="K5" s="9" t="n"/>
-      <c r="L5" s="9" t="n"/>
-      <c r="M5" s="9" t="n"/>
-      <c r="N5" s="9" t="n"/>
-      <c r="O5" s="9" t="n"/>
-      <c r="P5" s="9" t="n"/>
-      <c r="Q5" s="9" t="n"/>
-      <c r="R5" s="9" t="n"/>
+          <t>25-10-22</t>
+        </is>
+      </c>
+      <c r="D5" s="11" t="inlineStr">
+        <is>
+          <t>25-10-22</t>
+        </is>
+      </c>
+      <c r="E5" s="11" t="inlineStr">
+        <is>
+          <t>25-10-22</t>
+        </is>
+      </c>
+      <c r="F5" s="11" t="inlineStr">
+        <is>
+          <t>25-10-22</t>
+        </is>
+      </c>
+      <c r="G5" s="9" t="inlineStr">
+        <is>
+          <t>25-10-22</t>
+        </is>
+      </c>
+      <c r="H5" s="9" t="inlineStr">
+        <is>
+          <t>25-10-22</t>
+        </is>
+      </c>
+      <c r="I5" s="9" t="inlineStr">
+        <is>
+          <t>25-10-22</t>
+        </is>
+      </c>
+      <c r="J5" s="9" t="inlineStr">
+        <is>
+          <t>25-10-22</t>
+        </is>
+      </c>
+      <c r="K5" s="9" t="inlineStr">
+        <is>
+          <t>25-10-22</t>
+        </is>
+      </c>
+      <c r="L5" s="9" t="inlineStr">
+        <is>
+          <t>25-10-22</t>
+        </is>
+      </c>
+      <c r="M5" s="9" t="inlineStr">
+        <is>
+          <t>25-10-22</t>
+        </is>
+      </c>
+      <c r="N5" s="9" t="inlineStr">
+        <is>
+          <t>25-10-22</t>
+        </is>
+      </c>
+      <c r="O5" s="9" t="inlineStr">
+        <is>
+          <t>25-10-22</t>
+        </is>
+      </c>
+      <c r="P5" s="9" t="inlineStr">
+        <is>
+          <t>25-10-22</t>
+        </is>
+      </c>
+      <c r="Q5" s="9" t="inlineStr">
+        <is>
+          <t>25-10-22</t>
+        </is>
+      </c>
+      <c r="R5" s="9" t="inlineStr">
+        <is>
+          <t>25-10-22</t>
+        </is>
+      </c>
       <c r="S5" s="9" t="n"/>
       <c r="T5" s="9" t="n"/>
       <c r="U5" s="9" t="n"/>
@@ -1620,21 +1830,51 @@
       <c r="C8" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="D8" s="9" t="n"/>
-      <c r="E8" s="9" t="n"/>
-      <c r="F8" s="9" t="n"/>
-      <c r="G8" s="9" t="n"/>
-      <c r="H8" s="9" t="n"/>
-      <c r="I8" s="9" t="n"/>
-      <c r="J8" s="9" t="n"/>
-      <c r="K8" s="9" t="n"/>
-      <c r="L8" s="9" t="n"/>
-      <c r="M8" s="9" t="n"/>
-      <c r="N8" s="9" t="n"/>
-      <c r="O8" s="9" t="n"/>
-      <c r="P8" s="9" t="n"/>
-      <c r="Q8" s="9" t="n"/>
-      <c r="R8" s="9" t="n"/>
+      <c r="D8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="E8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="F8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="G8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="H8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="J8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="K8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="L8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="M8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="N8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="O8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="P8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="R8" s="9" t="n">
+        <v>20</v>
+      </c>
       <c r="S8" s="9" t="n"/>
       <c r="T8" s="9" t="n"/>
       <c r="U8" s="9" t="n"/>
@@ -1651,21 +1891,51 @@
       <c r="C9" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="D9" s="9" t="n"/>
-      <c r="E9" s="9" t="n"/>
-      <c r="F9" s="9" t="n"/>
-      <c r="G9" s="9" t="n"/>
-      <c r="H9" s="9" t="n"/>
-      <c r="I9" s="9" t="n"/>
-      <c r="J9" s="9" t="n"/>
-      <c r="K9" s="9" t="n"/>
-      <c r="L9" s="9" t="n"/>
-      <c r="M9" s="9" t="n"/>
-      <c r="N9" s="9" t="n"/>
-      <c r="O9" s="9" t="n"/>
-      <c r="P9" s="9" t="n"/>
-      <c r="Q9" s="9" t="n"/>
-      <c r="R9" s="9" t="n"/>
+      <c r="D9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="E9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="G9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="H9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="I9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="J9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="K9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="M9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="N9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="O9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="P9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="R9" s="9" t="n">
+        <v>18</v>
+      </c>
       <c r="S9" s="9" t="n"/>
       <c r="T9" s="9" t="n"/>
       <c r="U9" s="9" t="n"/>
@@ -1682,21 +1952,51 @@
       <c r="C10" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="D10" s="9" t="n"/>
-      <c r="E10" s="9" t="n"/>
-      <c r="F10" s="9" t="n"/>
-      <c r="G10" s="9" t="n"/>
-      <c r="H10" s="9" t="n"/>
-      <c r="I10" s="9" t="n"/>
-      <c r="J10" s="9" t="n"/>
-      <c r="K10" s="9" t="n"/>
-      <c r="L10" s="9" t="n"/>
-      <c r="M10" s="9" t="n"/>
-      <c r="N10" s="9" t="n"/>
-      <c r="O10" s="9" t="n"/>
-      <c r="P10" s="9" t="n"/>
-      <c r="Q10" s="9" t="n"/>
-      <c r="R10" s="9" t="n"/>
+      <c r="D10" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="E10" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="F10" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="G10" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="H10" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="I10" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="J10" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="K10" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="L10" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="M10" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="N10" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="O10" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="P10" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q10" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="R10" s="9" t="n">
+        <v>22</v>
+      </c>
       <c r="S10" s="9" t="n"/>
       <c r="T10" s="9" t="n"/>
       <c r="U10" s="9" t="n"/>

--- a/report.xlsx
+++ b/report.xlsx
@@ -1487,36 +1487,12 @@
           <t>11.</t>
         </is>
       </c>
-      <c r="M2" s="9" t="inlineStr">
-        <is>
-          <t>12.</t>
-        </is>
-      </c>
-      <c r="N2" s="9" t="inlineStr">
-        <is>
-          <t>13.</t>
-        </is>
-      </c>
-      <c r="O2" s="9" t="inlineStr">
-        <is>
-          <t>14.</t>
-        </is>
-      </c>
-      <c r="P2" s="9" t="inlineStr">
-        <is>
-          <t>15.</t>
-        </is>
-      </c>
-      <c r="Q2" s="9" t="inlineStr">
-        <is>
-          <t>16.</t>
-        </is>
-      </c>
-      <c r="R2" s="9" t="inlineStr">
-        <is>
-          <t>17.</t>
-        </is>
-      </c>
+      <c r="M2" s="9" t="n"/>
+      <c r="N2" s="9" t="n"/>
+      <c r="O2" s="9" t="n"/>
+      <c r="P2" s="9" t="n"/>
+      <c r="Q2" s="9" t="n"/>
+      <c r="R2" s="9" t="n"/>
       <c r="S2" s="9" t="n"/>
       <c r="T2" s="9" t="n"/>
       <c r="U2" s="9" t="n"/>
@@ -1528,56 +1504,44 @@
         </is>
       </c>
       <c r="B3" s="9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="9" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E3" s="9" t="n">
         <v>22</v>
       </c>
       <c r="F3" s="10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" s="10" t="n">
+        <v>19</v>
+      </c>
+      <c r="H3" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="I3" s="10" t="n">
+        <v>19</v>
+      </c>
+      <c r="J3" s="10" t="n">
         <v>21</v>
       </c>
-      <c r="H3" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="I3" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="J3" s="10" t="n">
+      <c r="K3" s="10" t="n">
         <v>19</v>
       </c>
-      <c r="K3" s="10" t="n">
-        <v>20</v>
-      </c>
       <c r="L3" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="M3" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="N3" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="O3" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="P3" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="R3" s="9" t="n">
-        <v>18</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M3" s="9" t="n"/>
+      <c r="N3" s="9" t="n"/>
+      <c r="O3" s="9" t="n"/>
+      <c r="P3" s="9" t="n"/>
+      <c r="Q3" s="9" t="n"/>
+      <c r="R3" s="9" t="n"/>
       <c r="S3" s="9" t="n"/>
       <c r="T3" s="9" t="n"/>
       <c r="U3" s="9" t="n"/>
@@ -1590,89 +1554,65 @@
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>10:49:11</t>
+          <t>14:12:52</t>
         </is>
       </c>
       <c r="C4" s="9" t="inlineStr">
         <is>
-          <t>10:49:16</t>
+          <t>14:12:57</t>
         </is>
       </c>
       <c r="D4" s="9" t="inlineStr">
         <is>
-          <t>10:49:22</t>
+          <t>14:13:02</t>
         </is>
       </c>
       <c r="E4" s="9" t="inlineStr">
         <is>
-          <t>10:51:42</t>
+          <t>14:13:08</t>
         </is>
       </c>
       <c r="F4" s="9" t="inlineStr">
         <is>
-          <t>10:51:47</t>
+          <t>14:13:13</t>
         </is>
       </c>
       <c r="G4" s="9" t="inlineStr">
         <is>
-          <t>10:51:53</t>
+          <t>14:13:18</t>
         </is>
       </c>
       <c r="H4" s="9" t="inlineStr">
         <is>
-          <t>10:51:58</t>
+          <t>14:13:24</t>
         </is>
       </c>
       <c r="I4" s="9" t="inlineStr">
         <is>
-          <t>10:52:03</t>
+          <t>14:13:33</t>
         </is>
       </c>
       <c r="J4" s="9" t="inlineStr">
         <is>
-          <t>10:52:33</t>
+          <t>14:13:38</t>
         </is>
       </c>
       <c r="K4" s="9" t="inlineStr">
         <is>
-          <t>10:52:48</t>
+          <t>14:13:44</t>
         </is>
       </c>
       <c r="L4" s="9" t="inlineStr">
         <is>
-          <t>10:52:57</t>
-        </is>
-      </c>
-      <c r="M4" s="9" t="inlineStr">
-        <is>
-          <t>10:53:06</t>
-        </is>
-      </c>
-      <c r="N4" s="9" t="inlineStr">
-        <is>
-          <t>10:53:12</t>
-        </is>
-      </c>
-      <c r="O4" s="9" t="inlineStr">
-        <is>
-          <t>10:53:18</t>
-        </is>
-      </c>
-      <c r="P4" s="9" t="inlineStr">
-        <is>
-          <t>10:53:28</t>
-        </is>
-      </c>
-      <c r="Q4" s="9" t="inlineStr">
-        <is>
-          <t>10:53:33</t>
-        </is>
-      </c>
-      <c r="R4" s="9" t="inlineStr">
-        <is>
-          <t>10:53:38</t>
-        </is>
-      </c>
+          <t>14:15:53</t>
+        </is>
+      </c>
+      <c r="M4" s="9" t="n"/>
+      <c r="N4" s="9" t="n"/>
+      <c r="O4" s="9" t="n"/>
+      <c r="P4" s="9" t="n"/>
+      <c r="Q4" s="9" t="n"/>
+      <c r="R4" s="9" t="n"/>
       <c r="S4" s="9" t="n"/>
       <c r="T4" s="9" t="n"/>
       <c r="U4" s="9" t="n"/>
@@ -1685,89 +1625,65 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>25-10-22</t>
+          <t>21-11-22</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>25-10-22</t>
+          <t>21-11-22</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr">
         <is>
-          <t>25-10-22</t>
+          <t>21-11-22</t>
         </is>
       </c>
       <c r="E5" s="11" t="inlineStr">
         <is>
-          <t>25-10-22</t>
+          <t>21-11-22</t>
         </is>
       </c>
       <c r="F5" s="11" t="inlineStr">
         <is>
-          <t>25-10-22</t>
+          <t>21-11-22</t>
         </is>
       </c>
       <c r="G5" s="9" t="inlineStr">
         <is>
-          <t>25-10-22</t>
+          <t>21-11-22</t>
         </is>
       </c>
       <c r="H5" s="9" t="inlineStr">
         <is>
-          <t>25-10-22</t>
+          <t>21-11-22</t>
         </is>
       </c>
       <c r="I5" s="9" t="inlineStr">
         <is>
-          <t>25-10-22</t>
+          <t>21-11-22</t>
         </is>
       </c>
       <c r="J5" s="9" t="inlineStr">
         <is>
-          <t>25-10-22</t>
+          <t>21-11-22</t>
         </is>
       </c>
       <c r="K5" s="9" t="inlineStr">
         <is>
-          <t>25-10-22</t>
+          <t>21-11-22</t>
         </is>
       </c>
       <c r="L5" s="9" t="inlineStr">
         <is>
-          <t>25-10-22</t>
-        </is>
-      </c>
-      <c r="M5" s="9" t="inlineStr">
-        <is>
-          <t>25-10-22</t>
-        </is>
-      </c>
-      <c r="N5" s="9" t="inlineStr">
-        <is>
-          <t>25-10-22</t>
-        </is>
-      </c>
-      <c r="O5" s="9" t="inlineStr">
-        <is>
-          <t>25-10-22</t>
-        </is>
-      </c>
-      <c r="P5" s="9" t="inlineStr">
-        <is>
-          <t>25-10-22</t>
-        </is>
-      </c>
-      <c r="Q5" s="9" t="inlineStr">
-        <is>
-          <t>25-10-22</t>
-        </is>
-      </c>
-      <c r="R5" s="9" t="inlineStr">
-        <is>
-          <t>25-10-22</t>
-        </is>
-      </c>
+          <t>21-11-22</t>
+        </is>
+      </c>
+      <c r="M5" s="9" t="n"/>
+      <c r="N5" s="9" t="n"/>
+      <c r="O5" s="9" t="n"/>
+      <c r="P5" s="9" t="n"/>
+      <c r="Q5" s="9" t="n"/>
+      <c r="R5" s="9" t="n"/>
       <c r="S5" s="9" t="n"/>
       <c r="T5" s="9" t="n"/>
       <c r="U5" s="9" t="n"/>
@@ -1857,24 +1773,12 @@
       <c r="L8" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="M8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="N8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="O8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="P8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="R8" s="9" t="n">
-        <v>20</v>
-      </c>
+      <c r="M8" s="9" t="n"/>
+      <c r="N8" s="9" t="n"/>
+      <c r="O8" s="9" t="n"/>
+      <c r="P8" s="9" t="n"/>
+      <c r="Q8" s="9" t="n"/>
+      <c r="R8" s="9" t="n"/>
       <c r="S8" s="9" t="n"/>
       <c r="T8" s="9" t="n"/>
       <c r="U8" s="9" t="n"/>
@@ -1918,24 +1822,12 @@
       <c r="L9" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="M9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="N9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="O9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="P9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="R9" s="9" t="n">
-        <v>18</v>
-      </c>
+      <c r="M9" s="9" t="n"/>
+      <c r="N9" s="9" t="n"/>
+      <c r="O9" s="9" t="n"/>
+      <c r="P9" s="9" t="n"/>
+      <c r="Q9" s="9" t="n"/>
+      <c r="R9" s="9" t="n"/>
       <c r="S9" s="9" t="n"/>
       <c r="T9" s="9" t="n"/>
       <c r="U9" s="9" t="n"/>
@@ -1979,24 +1871,12 @@
       <c r="L10" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="M10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="N10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="O10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="P10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="Q10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="R10" s="9" t="n">
-        <v>22</v>
-      </c>
+      <c r="M10" s="9" t="n"/>
+      <c r="N10" s="9" t="n"/>
+      <c r="O10" s="9" t="n"/>
+      <c r="P10" s="9" t="n"/>
+      <c r="Q10" s="9" t="n"/>
+      <c r="R10" s="9" t="n"/>
       <c r="S10" s="9" t="n"/>
       <c r="T10" s="9" t="n"/>
       <c r="U10" s="9" t="n"/>

--- a/report.xlsx
+++ b/report.xlsx
@@ -1487,8 +1487,16 @@
           <t>11.</t>
         </is>
       </c>
-      <c r="M2" s="9" t="n"/>
-      <c r="N2" s="9" t="n"/>
+      <c r="M2" s="9" t="inlineStr">
+        <is>
+          <t>12.</t>
+        </is>
+      </c>
+      <c r="N2" s="9" t="inlineStr">
+        <is>
+          <t>13.</t>
+        </is>
+      </c>
       <c r="O2" s="9" t="n"/>
       <c r="P2" s="9" t="n"/>
       <c r="Q2" s="9" t="n"/>
@@ -1536,8 +1544,12 @@
       <c r="L3" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="M3" s="9" t="n"/>
-      <c r="N3" s="9" t="n"/>
+      <c r="M3" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="N3" s="9" t="n">
+        <v>21</v>
+      </c>
       <c r="O3" s="9" t="n"/>
       <c r="P3" s="9" t="n"/>
       <c r="Q3" s="9" t="n"/>
@@ -1607,8 +1619,16 @@
           <t>14:15:53</t>
         </is>
       </c>
-      <c r="M4" s="9" t="n"/>
-      <c r="N4" s="9" t="n"/>
+      <c r="M4" s="9" t="inlineStr">
+        <is>
+          <t>10:57:57</t>
+        </is>
+      </c>
+      <c r="N4" s="9" t="inlineStr">
+        <is>
+          <t>18:24:03</t>
+        </is>
+      </c>
       <c r="O4" s="9" t="n"/>
       <c r="P4" s="9" t="n"/>
       <c r="Q4" s="9" t="n"/>
@@ -1678,8 +1698,16 @@
           <t>21-11-22</t>
         </is>
       </c>
-      <c r="M5" s="9" t="n"/>
-      <c r="N5" s="9" t="n"/>
+      <c r="M5" s="9" t="inlineStr">
+        <is>
+          <t>24-11-22</t>
+        </is>
+      </c>
+      <c r="N5" s="9" t="inlineStr">
+        <is>
+          <t>08-12-22</t>
+        </is>
+      </c>
       <c r="O5" s="9" t="n"/>
       <c r="P5" s="9" t="n"/>
       <c r="Q5" s="9" t="n"/>
@@ -1773,8 +1801,12 @@
       <c r="L8" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="M8" s="9" t="n"/>
-      <c r="N8" s="9" t="n"/>
+      <c r="M8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="N8" s="9" t="n">
+        <v>20</v>
+      </c>
       <c r="O8" s="9" t="n"/>
       <c r="P8" s="9" t="n"/>
       <c r="Q8" s="9" t="n"/>
@@ -1822,8 +1854,12 @@
       <c r="L9" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="M9" s="9" t="n"/>
-      <c r="N9" s="9" t="n"/>
+      <c r="M9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="N9" s="9" t="n">
+        <v>18</v>
+      </c>
       <c r="O9" s="9" t="n"/>
       <c r="P9" s="9" t="n"/>
       <c r="Q9" s="9" t="n"/>
@@ -1871,8 +1907,12 @@
       <c r="L10" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="M10" s="9" t="n"/>
-      <c r="N10" s="9" t="n"/>
+      <c r="M10" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="N10" s="9" t="n">
+        <v>22</v>
+      </c>
       <c r="O10" s="9" t="n"/>
       <c r="P10" s="9" t="n"/>
       <c r="Q10" s="9" t="n"/>

--- a/report.xlsx
+++ b/report.xlsx
@@ -1497,13 +1497,41 @@
           <t>13.</t>
         </is>
       </c>
-      <c r="O2" s="9" t="n"/>
-      <c r="P2" s="9" t="n"/>
-      <c r="Q2" s="9" t="n"/>
-      <c r="R2" s="9" t="n"/>
-      <c r="S2" s="9" t="n"/>
-      <c r="T2" s="9" t="n"/>
-      <c r="U2" s="9" t="n"/>
+      <c r="O2" s="9" t="inlineStr">
+        <is>
+          <t>14.</t>
+        </is>
+      </c>
+      <c r="P2" s="9" t="inlineStr">
+        <is>
+          <t>15.</t>
+        </is>
+      </c>
+      <c r="Q2" s="9" t="inlineStr">
+        <is>
+          <t>16.</t>
+        </is>
+      </c>
+      <c r="R2" s="9" t="inlineStr">
+        <is>
+          <t>17.</t>
+        </is>
+      </c>
+      <c r="S2" s="9" t="inlineStr">
+        <is>
+          <t>18.</t>
+        </is>
+      </c>
+      <c r="T2" s="9" t="inlineStr">
+        <is>
+          <t>19.</t>
+        </is>
+      </c>
+      <c r="U2" s="9" t="inlineStr">
+        <is>
+          <t>20.</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="7">
       <c r="A3" s="9" t="inlineStr">
@@ -1550,13 +1578,27 @@
       <c r="N3" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="O3" s="9" t="n"/>
-      <c r="P3" s="9" t="n"/>
-      <c r="Q3" s="9" t="n"/>
-      <c r="R3" s="9" t="n"/>
-      <c r="S3" s="9" t="n"/>
-      <c r="T3" s="9" t="n"/>
-      <c r="U3" s="9" t="n"/>
+      <c r="O3" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="P3" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="R3" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="S3" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="T3" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="U3" s="9" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" ht="12.75" customHeight="1" s="7">
       <c r="A4" s="9" t="inlineStr">
@@ -1629,13 +1671,41 @@
           <t>18:24:03</t>
         </is>
       </c>
-      <c r="O4" s="9" t="n"/>
-      <c r="P4" s="9" t="n"/>
-      <c r="Q4" s="9" t="n"/>
-      <c r="R4" s="9" t="n"/>
-      <c r="S4" s="9" t="n"/>
-      <c r="T4" s="9" t="n"/>
-      <c r="U4" s="9" t="n"/>
+      <c r="O4" s="9" t="inlineStr">
+        <is>
+          <t>14:46:40</t>
+        </is>
+      </c>
+      <c r="P4" s="9" t="inlineStr">
+        <is>
+          <t>19:37:01</t>
+        </is>
+      </c>
+      <c r="Q4" s="9" t="inlineStr">
+        <is>
+          <t>19:37:06</t>
+        </is>
+      </c>
+      <c r="R4" s="9" t="inlineStr">
+        <is>
+          <t>16:07:55</t>
+        </is>
+      </c>
+      <c r="S4" s="9" t="inlineStr">
+        <is>
+          <t>16:11:43</t>
+        </is>
+      </c>
+      <c r="T4" s="9" t="inlineStr">
+        <is>
+          <t>16:14:07</t>
+        </is>
+      </c>
+      <c r="U4" s="9" t="inlineStr">
+        <is>
+          <t>16:20:19</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="12.75" customHeight="1" s="7">
       <c r="A5" s="9" t="inlineStr">
@@ -1708,13 +1778,41 @@
           <t>08-12-22</t>
         </is>
       </c>
-      <c r="O5" s="9" t="n"/>
-      <c r="P5" s="9" t="n"/>
-      <c r="Q5" s="9" t="n"/>
-      <c r="R5" s="9" t="n"/>
-      <c r="S5" s="9" t="n"/>
-      <c r="T5" s="9" t="n"/>
-      <c r="U5" s="9" t="n"/>
+      <c r="O5" s="9" t="inlineStr">
+        <is>
+          <t>14-12-22</t>
+        </is>
+      </c>
+      <c r="P5" s="9" t="inlineStr">
+        <is>
+          <t>13-01-23</t>
+        </is>
+      </c>
+      <c r="Q5" s="9" t="inlineStr">
+        <is>
+          <t>13-01-23</t>
+        </is>
+      </c>
+      <c r="R5" s="9" t="inlineStr">
+        <is>
+          <t>17-01-23</t>
+        </is>
+      </c>
+      <c r="S5" s="9" t="inlineStr">
+        <is>
+          <t>17-01-23</t>
+        </is>
+      </c>
+      <c r="T5" s="9" t="inlineStr">
+        <is>
+          <t>17-01-23</t>
+        </is>
+      </c>
+      <c r="U5" s="9" t="inlineStr">
+        <is>
+          <t>17-01-23</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="12.8" customHeight="1" s="7">
       <c r="A6" s="9" t="n"/>
@@ -1807,13 +1905,27 @@
       <c r="N8" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="O8" s="9" t="n"/>
-      <c r="P8" s="9" t="n"/>
-      <c r="Q8" s="9" t="n"/>
-      <c r="R8" s="9" t="n"/>
-      <c r="S8" s="9" t="n"/>
-      <c r="T8" s="9" t="n"/>
-      <c r="U8" s="9" t="n"/>
+      <c r="O8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="P8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="R8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="S8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="T8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="U8" s="9" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" ht="12.8" customHeight="1" s="7">
       <c r="A9" s="9" t="inlineStr">
@@ -1860,13 +1972,27 @@
       <c r="N9" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="O9" s="9" t="n"/>
-      <c r="P9" s="9" t="n"/>
-      <c r="Q9" s="9" t="n"/>
-      <c r="R9" s="9" t="n"/>
-      <c r="S9" s="9" t="n"/>
-      <c r="T9" s="9" t="n"/>
-      <c r="U9" s="9" t="n"/>
+      <c r="O9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="P9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="R9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="S9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="T9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="U9" s="9" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" ht="12.8" customHeight="1" s="7">
       <c r="A10" s="9" t="inlineStr">
@@ -1913,13 +2039,27 @@
       <c r="N10" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="O10" s="9" t="n"/>
-      <c r="P10" s="9" t="n"/>
-      <c r="Q10" s="9" t="n"/>
-      <c r="R10" s="9" t="n"/>
-      <c r="S10" s="9" t="n"/>
-      <c r="T10" s="9" t="n"/>
-      <c r="U10" s="9" t="n"/>
+      <c r="O10" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="P10" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q10" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="R10" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="S10" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="T10" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="U10" s="9" t="n">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/report.xlsx
+++ b/report.xlsx
@@ -1442,96 +1442,24 @@
           <t>2.</t>
         </is>
       </c>
-      <c r="D2" s="9" t="inlineStr">
-        <is>
-          <t>3.</t>
-        </is>
-      </c>
-      <c r="E2" s="9" t="inlineStr">
-        <is>
-          <t>4.</t>
-        </is>
-      </c>
-      <c r="F2" s="9" t="inlineStr">
-        <is>
-          <t>5.</t>
-        </is>
-      </c>
-      <c r="G2" s="9" t="inlineStr">
-        <is>
-          <t>6.</t>
-        </is>
-      </c>
-      <c r="H2" s="9" t="inlineStr">
-        <is>
-          <t>7.</t>
-        </is>
-      </c>
-      <c r="I2" s="9" t="inlineStr">
-        <is>
-          <t>8.</t>
-        </is>
-      </c>
-      <c r="J2" s="9" t="inlineStr">
-        <is>
-          <t>9.</t>
-        </is>
-      </c>
-      <c r="K2" s="9" t="inlineStr">
-        <is>
-          <t>10.</t>
-        </is>
-      </c>
-      <c r="L2" s="9" t="inlineStr">
-        <is>
-          <t>11.</t>
-        </is>
-      </c>
-      <c r="M2" s="9" t="inlineStr">
-        <is>
-          <t>12.</t>
-        </is>
-      </c>
-      <c r="N2" s="9" t="inlineStr">
-        <is>
-          <t>13.</t>
-        </is>
-      </c>
-      <c r="O2" s="9" t="inlineStr">
-        <is>
-          <t>14.</t>
-        </is>
-      </c>
-      <c r="P2" s="9" t="inlineStr">
-        <is>
-          <t>15.</t>
-        </is>
-      </c>
-      <c r="Q2" s="9" t="inlineStr">
-        <is>
-          <t>16.</t>
-        </is>
-      </c>
-      <c r="R2" s="9" t="inlineStr">
-        <is>
-          <t>17.</t>
-        </is>
-      </c>
-      <c r="S2" s="9" t="inlineStr">
-        <is>
-          <t>18.</t>
-        </is>
-      </c>
-      <c r="T2" s="9" t="inlineStr">
-        <is>
-          <t>19.</t>
-        </is>
-      </c>
-      <c r="U2" s="9" t="inlineStr">
-        <is>
-          <t>20.</t>
-        </is>
-      </c>
+      <c r="D2" s="9" t="n"/>
+      <c r="E2" s="9" t="n"/>
+      <c r="F2" s="9" t="n"/>
+      <c r="G2" s="9" t="n"/>
+      <c r="H2" s="9" t="n"/>
+      <c r="I2" s="9" t="n"/>
+      <c r="J2" s="9" t="n"/>
+      <c r="K2" s="9" t="n"/>
+      <c r="L2" s="9" t="n"/>
+      <c r="M2" s="9" t="n"/>
+      <c r="N2" s="9" t="n"/>
+      <c r="O2" s="9" t="n"/>
+      <c r="P2" s="9" t="n"/>
+      <c r="Q2" s="9" t="n"/>
+      <c r="R2" s="9" t="n"/>
+      <c r="S2" s="9" t="n"/>
+      <c r="T2" s="9" t="n"/>
+      <c r="U2" s="9" t="n"/>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="7">
       <c r="A3" s="9" t="inlineStr">
@@ -1540,65 +1468,29 @@
         </is>
       </c>
       <c r="B3" s="9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="D3" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="E3" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="F3" s="10" t="n">
-        <v>19</v>
-      </c>
-      <c r="G3" s="10" t="n">
-        <v>19</v>
-      </c>
-      <c r="H3" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="I3" s="10" t="n">
-        <v>19</v>
-      </c>
-      <c r="J3" s="10" t="n">
-        <v>21</v>
-      </c>
-      <c r="K3" s="10" t="n">
-        <v>19</v>
-      </c>
-      <c r="L3" s="9" t="n">
-        <v>21</v>
-      </c>
-      <c r="M3" s="9" t="n">
-        <v>21</v>
-      </c>
-      <c r="N3" s="9" t="n">
-        <v>21</v>
-      </c>
-      <c r="O3" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="P3" s="9" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q3" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="R3" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="S3" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="T3" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="U3" s="9" t="n">
-        <v>19</v>
-      </c>
+      <c r="D3" s="9" t="n"/>
+      <c r="E3" s="9" t="n"/>
+      <c r="F3" s="10" t="n"/>
+      <c r="G3" s="10" t="n"/>
+      <c r="H3" s="10" t="n"/>
+      <c r="I3" s="10" t="n"/>
+      <c r="J3" s="10" t="n"/>
+      <c r="K3" s="10" t="n"/>
+      <c r="L3" s="9" t="n"/>
+      <c r="M3" s="9" t="n"/>
+      <c r="N3" s="9" t="n"/>
+      <c r="O3" s="9" t="n"/>
+      <c r="P3" s="9" t="n"/>
+      <c r="Q3" s="9" t="n"/>
+      <c r="R3" s="9" t="n"/>
+      <c r="S3" s="9" t="n"/>
+      <c r="T3" s="9" t="n"/>
+      <c r="U3" s="9" t="n"/>
     </row>
     <row r="4" ht="12.75" customHeight="1" s="7">
       <c r="A4" s="9" t="inlineStr">
@@ -1608,104 +1500,32 @@
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>14:12:52</t>
+          <t>16:50:29</t>
         </is>
       </c>
       <c r="C4" s="9" t="inlineStr">
         <is>
-          <t>14:12:57</t>
+          <t>16:50:35</t>
         </is>
       </c>
-      <c r="D4" s="9" t="inlineStr">
-        <is>
-          <t>14:13:02</t>
-        </is>
-      </c>
-      <c r="E4" s="9" t="inlineStr">
-        <is>
-          <t>14:13:08</t>
-        </is>
-      </c>
-      <c r="F4" s="9" t="inlineStr">
-        <is>
-          <t>14:13:13</t>
-        </is>
-      </c>
-      <c r="G4" s="9" t="inlineStr">
-        <is>
-          <t>14:13:18</t>
-        </is>
-      </c>
-      <c r="H4" s="9" t="inlineStr">
-        <is>
-          <t>14:13:24</t>
-        </is>
-      </c>
-      <c r="I4" s="9" t="inlineStr">
-        <is>
-          <t>14:13:33</t>
-        </is>
-      </c>
-      <c r="J4" s="9" t="inlineStr">
-        <is>
-          <t>14:13:38</t>
-        </is>
-      </c>
-      <c r="K4" s="9" t="inlineStr">
-        <is>
-          <t>14:13:44</t>
-        </is>
-      </c>
-      <c r="L4" s="9" t="inlineStr">
-        <is>
-          <t>14:15:53</t>
-        </is>
-      </c>
-      <c r="M4" s="9" t="inlineStr">
-        <is>
-          <t>10:57:57</t>
-        </is>
-      </c>
-      <c r="N4" s="9" t="inlineStr">
-        <is>
-          <t>18:24:03</t>
-        </is>
-      </c>
-      <c r="O4" s="9" t="inlineStr">
-        <is>
-          <t>14:46:40</t>
-        </is>
-      </c>
-      <c r="P4" s="9" t="inlineStr">
-        <is>
-          <t>19:37:01</t>
-        </is>
-      </c>
-      <c r="Q4" s="9" t="inlineStr">
-        <is>
-          <t>19:37:06</t>
-        </is>
-      </c>
-      <c r="R4" s="9" t="inlineStr">
-        <is>
-          <t>16:07:55</t>
-        </is>
-      </c>
-      <c r="S4" s="9" t="inlineStr">
-        <is>
-          <t>16:11:43</t>
-        </is>
-      </c>
-      <c r="T4" s="9" t="inlineStr">
-        <is>
-          <t>16:14:07</t>
-        </is>
-      </c>
-      <c r="U4" s="9" t="inlineStr">
-        <is>
-          <t>16:20:19</t>
-        </is>
-      </c>
+      <c r="D4" s="9" t="n"/>
+      <c r="E4" s="9" t="n"/>
+      <c r="F4" s="9" t="n"/>
+      <c r="G4" s="9" t="n"/>
+      <c r="H4" s="9" t="n"/>
+      <c r="I4" s="9" t="n"/>
+      <c r="J4" s="9" t="n"/>
+      <c r="K4" s="9" t="n"/>
+      <c r="L4" s="9" t="n"/>
+      <c r="M4" s="9" t="n"/>
+      <c r="N4" s="9" t="n"/>
+      <c r="O4" s="9" t="n"/>
+      <c r="P4" s="9" t="n"/>
+      <c r="Q4" s="9" t="n"/>
+      <c r="R4" s="9" t="n"/>
+      <c r="S4" s="9" t="n"/>
+      <c r="T4" s="9" t="n"/>
+      <c r="U4" s="9" t="n"/>
     </row>
     <row r="5" ht="12.75" customHeight="1" s="7">
       <c r="A5" s="9" t="inlineStr">
@@ -1715,104 +1535,32 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>21-11-22</t>
+          <t>29-03-23</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>21-11-22</t>
+          <t>29-03-23</t>
         </is>
       </c>
-      <c r="D5" s="11" t="inlineStr">
-        <is>
-          <t>21-11-22</t>
-        </is>
-      </c>
-      <c r="E5" s="11" t="inlineStr">
-        <is>
-          <t>21-11-22</t>
-        </is>
-      </c>
-      <c r="F5" s="11" t="inlineStr">
-        <is>
-          <t>21-11-22</t>
-        </is>
-      </c>
-      <c r="G5" s="9" t="inlineStr">
-        <is>
-          <t>21-11-22</t>
-        </is>
-      </c>
-      <c r="H5" s="9" t="inlineStr">
-        <is>
-          <t>21-11-22</t>
-        </is>
-      </c>
-      <c r="I5" s="9" t="inlineStr">
-        <is>
-          <t>21-11-22</t>
-        </is>
-      </c>
-      <c r="J5" s="9" t="inlineStr">
-        <is>
-          <t>21-11-22</t>
-        </is>
-      </c>
-      <c r="K5" s="9" t="inlineStr">
-        <is>
-          <t>21-11-22</t>
-        </is>
-      </c>
-      <c r="L5" s="9" t="inlineStr">
-        <is>
-          <t>21-11-22</t>
-        </is>
-      </c>
-      <c r="M5" s="9" t="inlineStr">
-        <is>
-          <t>24-11-22</t>
-        </is>
-      </c>
-      <c r="N5" s="9" t="inlineStr">
-        <is>
-          <t>08-12-22</t>
-        </is>
-      </c>
-      <c r="O5" s="9" t="inlineStr">
-        <is>
-          <t>14-12-22</t>
-        </is>
-      </c>
-      <c r="P5" s="9" t="inlineStr">
-        <is>
-          <t>13-01-23</t>
-        </is>
-      </c>
-      <c r="Q5" s="9" t="inlineStr">
-        <is>
-          <t>13-01-23</t>
-        </is>
-      </c>
-      <c r="R5" s="9" t="inlineStr">
-        <is>
-          <t>17-01-23</t>
-        </is>
-      </c>
-      <c r="S5" s="9" t="inlineStr">
-        <is>
-          <t>17-01-23</t>
-        </is>
-      </c>
-      <c r="T5" s="9" t="inlineStr">
-        <is>
-          <t>17-01-23</t>
-        </is>
-      </c>
-      <c r="U5" s="9" t="inlineStr">
-        <is>
-          <t>17-01-23</t>
-        </is>
-      </c>
+      <c r="D5" s="11" t="n"/>
+      <c r="E5" s="11" t="n"/>
+      <c r="F5" s="11" t="n"/>
+      <c r="G5" s="9" t="n"/>
+      <c r="H5" s="9" t="n"/>
+      <c r="I5" s="9" t="n"/>
+      <c r="J5" s="9" t="n"/>
+      <c r="K5" s="9" t="n"/>
+      <c r="L5" s="9" t="n"/>
+      <c r="M5" s="9" t="n"/>
+      <c r="N5" s="9" t="n"/>
+      <c r="O5" s="9" t="n"/>
+      <c r="P5" s="9" t="n"/>
+      <c r="Q5" s="9" t="n"/>
+      <c r="R5" s="9" t="n"/>
+      <c r="S5" s="9" t="n"/>
+      <c r="T5" s="9" t="n"/>
+      <c r="U5" s="9" t="n"/>
     </row>
     <row r="6" ht="12.8" customHeight="1" s="7">
       <c r="A6" s="9" t="n"/>
@@ -1872,60 +1620,24 @@
       <c r="C8" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="D8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="E8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="F8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="G8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="H8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="J8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="K8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="L8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="M8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="N8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="O8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="P8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="R8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="S8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="T8" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="U8" s="9" t="n">
-        <v>20</v>
-      </c>
+      <c r="D8" s="9" t="n"/>
+      <c r="E8" s="9" t="n"/>
+      <c r="F8" s="9" t="n"/>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="9" t="n"/>
+      <c r="I8" s="9" t="n"/>
+      <c r="J8" s="9" t="n"/>
+      <c r="K8" s="9" t="n"/>
+      <c r="L8" s="9" t="n"/>
+      <c r="M8" s="9" t="n"/>
+      <c r="N8" s="9" t="n"/>
+      <c r="O8" s="9" t="n"/>
+      <c r="P8" s="9" t="n"/>
+      <c r="Q8" s="9" t="n"/>
+      <c r="R8" s="9" t="n"/>
+      <c r="S8" s="9" t="n"/>
+      <c r="T8" s="9" t="n"/>
+      <c r="U8" s="9" t="n"/>
     </row>
     <row r="9" ht="12.8" customHeight="1" s="7">
       <c r="A9" s="9" t="inlineStr">
@@ -1939,60 +1651,24 @@
       <c r="C9" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="D9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="E9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="F9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="G9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="H9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="I9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="J9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="K9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="L9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="M9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="N9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="O9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="P9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="R9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="S9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="T9" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="U9" s="9" t="n">
-        <v>18</v>
-      </c>
+      <c r="D9" s="9" t="n"/>
+      <c r="E9" s="9" t="n"/>
+      <c r="F9" s="9" t="n"/>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="9" t="n"/>
+      <c r="I9" s="9" t="n"/>
+      <c r="J9" s="9" t="n"/>
+      <c r="K9" s="9" t="n"/>
+      <c r="L9" s="9" t="n"/>
+      <c r="M9" s="9" t="n"/>
+      <c r="N9" s="9" t="n"/>
+      <c r="O9" s="9" t="n"/>
+      <c r="P9" s="9" t="n"/>
+      <c r="Q9" s="9" t="n"/>
+      <c r="R9" s="9" t="n"/>
+      <c r="S9" s="9" t="n"/>
+      <c r="T9" s="9" t="n"/>
+      <c r="U9" s="9" t="n"/>
     </row>
     <row r="10" ht="12.8" customHeight="1" s="7">
       <c r="A10" s="9" t="inlineStr">
@@ -2006,60 +1682,24 @@
       <c r="C10" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="D10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="E10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="F10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="G10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="H10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="I10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="J10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="K10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="L10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="M10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="N10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="O10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="P10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="Q10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="R10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="S10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="T10" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="U10" s="9" t="n">
-        <v>22</v>
-      </c>
+      <c r="D10" s="9" t="n"/>
+      <c r="E10" s="9" t="n"/>
+      <c r="F10" s="9" t="n"/>
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="9" t="n"/>
+      <c r="I10" s="9" t="n"/>
+      <c r="J10" s="9" t="n"/>
+      <c r="K10" s="9" t="n"/>
+      <c r="L10" s="9" t="n"/>
+      <c r="M10" s="9" t="n"/>
+      <c r="N10" s="9" t="n"/>
+      <c r="O10" s="9" t="n"/>
+      <c r="P10" s="9" t="n"/>
+      <c r="Q10" s="9" t="n"/>
+      <c r="R10" s="9" t="n"/>
+      <c r="S10" s="9" t="n"/>
+      <c r="T10" s="9" t="n"/>
+      <c r="U10" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
